--- a/torqueStartup.xlsx
+++ b/torqueStartup.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="468" uniqueCount="9">
   <si>
     <t>t</t>
   </si>
@@ -60,7 +60,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="19">
+  <borders count="105">
     <border>
       <left/>
       <right/>
@@ -86,11 +86,97 @@
     <border/>
     <border/>
     <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="105">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="true"/>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="true"/>
@@ -110,6 +196,92 @@
     <xf numFmtId="22" fontId="0" fillId="0" borderId="16" xfId="0" applyNumberFormat="true"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="17" xfId="0" applyNumberFormat="true"/>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="18" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="19" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="20" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="21" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="22" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="23" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="24" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="25" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="26" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="27" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="28" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="29" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="30" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="31" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="32" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="33" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="34" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="35" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="36" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="37" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="38" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="39" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="40" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="41" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="42" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="43" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="44" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="45" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="46" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="47" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="48" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="49" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="50" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="51" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="52" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="53" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="54" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="55" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="56" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="57" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="58" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="59" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="60" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="61" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="62" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="63" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="64" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="65" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="66" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="67" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="68" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="69" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="70" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="71" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="72" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="73" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="74" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="75" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="76" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="77" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="78" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="79" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="80" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="81" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="82" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="83" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="84" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="85" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="86" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="87" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="88" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="89" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="90" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="91" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="92" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="93" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="94" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="95" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="96" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="97" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="98" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="99" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="100" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="101" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="102" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="103" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="104" xfId="0" applyNumberFormat="true"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -123,42 +295,42 @@
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="5.7109375" customWidth="true"/>
-    <col min="2" max="2" width="3.140625" customWidth="true"/>
-    <col min="3" max="3" width="14.7109375" customWidth="true"/>
-    <col min="4" max="4" width="11.7109375" customWidth="true"/>
+    <col min="2" max="2" width="3.85546875" customWidth="true"/>
+    <col min="3" max="3" width="12.7109375" customWidth="true"/>
+    <col min="4" max="4" width="14.42578125" customWidth="true"/>
     <col min="5" max="5" width="12.42578125" customWidth="true"/>
-    <col min="6" max="6" width="15.7109375" customWidth="true"/>
-    <col min="7" max="7" width="15.7109375" customWidth="true"/>
-    <col min="8" max="8" width="12.7109375" customWidth="true"/>
+    <col min="6" max="6" width="14.7109375" customWidth="true"/>
+    <col min="7" max="7" width="16.42578125" customWidth="true"/>
+    <col min="8" max="8" width="11.7109375" customWidth="true"/>
     <col min="9" max="9" width="4.28515625" customWidth="true"/>
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="17" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="17" t="s">
+      <c r="A1" s="103" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="103" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="17" t="s">
+      <c r="C1" s="103" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="17" t="s">
+      <c r="D1" s="103" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="17" t="s">
+      <c r="E1" s="103" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="17" t="s">
+      <c r="F1" s="103" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="17" t="s">
+      <c r="G1" s="103" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="17" t="s">
+      <c r="H1" s="103" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="17" t="s">
+      <c r="I1" s="103" t="s">
         <v>8</v>
       </c>
     </row>
@@ -167,28 +339,28 @@
         <v>0.001</v>
       </c>
       <c r="B2">
-        <v>1</v>
+        <v>-22</v>
       </c>
       <c r="C2">
-        <v>0.0020088586905986092</v>
+        <v>1.3599712931686072</v>
       </c>
       <c r="D2">
-        <v>4.0177173811972189</v>
+        <v>-0.057413662785591221</v>
       </c>
       <c r="E2">
-        <v>4017.7173811972189</v>
+        <v>-57.413662785591221</v>
       </c>
       <c r="F2">
-        <v>0.00027405439497541563</v>
+        <v>0.022402492349736874</v>
       </c>
       <c r="G2">
-        <v>0.00012794293542205658</v>
+        <v>-0.0051877641753874468</v>
       </c>
       <c r="H2">
-        <v>0</v>
+        <v>77.922260137791966</v>
       </c>
       <c r="I2">
-        <v>1</v>
+        <v>78</v>
       </c>
     </row>
     <row r="3">
@@ -196,28 +368,28 @@
         <v>0.002</v>
       </c>
       <c r="B3">
-        <v>1</v>
+        <v>-22</v>
       </c>
       <c r="C3">
-        <v>0.0080626076893898675</v>
+        <v>1.359885173777059</v>
       </c>
       <c r="D3">
-        <v>8.0897806163852977</v>
+        <v>-0.1148251203109312</v>
       </c>
       <c r="E3">
-        <v>4072.0632351880777</v>
+        <v>-57.411457525339976</v>
       </c>
       <c r="F3">
-        <v>0.00027433698654228051</v>
+        <v>0.022402600171730694</v>
       </c>
       <c r="G3">
-        <v>0.00015023808377766815</v>
+        <v>-0.0051833699351131303</v>
       </c>
       <c r="H3">
-        <v>0.11509912460947717</v>
+        <v>77.920615357509959</v>
       </c>
       <c r="I3">
-        <v>1</v>
+        <v>78</v>
       </c>
     </row>
     <row r="4">
@@ -225,28 +397,28 @@
         <v>0.0030000000000000001</v>
       </c>
       <c r="B4">
-        <v>1</v>
+        <v>-22</v>
       </c>
       <c r="C4">
-        <v>0.01826377454003944</v>
+        <v>1.3597416462340706</v>
       </c>
       <c r="D4">
-        <v>12.312553084913844</v>
+        <v>-0.17222996566597118</v>
       </c>
       <c r="E4">
-        <v>4222.7724685285457</v>
+        <v>-57.404845355039988</v>
       </c>
       <c r="F4">
-        <v>0.00027545741663149602</v>
+        <v>0.022402923838312869</v>
       </c>
       <c r="G4">
-        <v>0.00021821968463230763</v>
+        <v>-0.0051701876981597034</v>
       </c>
       <c r="H4">
-        <v>0.46195339247176403</v>
+        <v>77.915681079840013</v>
       </c>
       <c r="I4">
-        <v>1</v>
+        <v>78</v>
       </c>
     </row>
     <row r="5">
@@ -254,28 +426,28 @@
         <v>0.0040000000000000001</v>
       </c>
       <c r="B5">
-        <v>1</v>
+        <v>-22</v>
       </c>
       <c r="C5">
-        <v>0.032791299471696643</v>
+        <v>1.3595407193497744</v>
       </c>
       <c r="D5">
-        <v>16.742496778400561</v>
+        <v>-0.22962380292661883</v>
       </c>
       <c r="E5">
-        <v>4429.9436934867172</v>
+        <v>-57.393837260647643</v>
       </c>
       <c r="F5">
-        <v>0.000278265754729167</v>
+        <v>0.022403463947100504</v>
       </c>
       <c r="G5">
-        <v>0.00033571982937324239</v>
+        <v>-0.0051482190845644083</v>
       </c>
       <c r="H5">
-        <v>1.0464371991227464</v>
+        <v>77.907457557382884</v>
       </c>
       <c r="I5">
-        <v>2</v>
+        <v>78</v>
       </c>
     </row>
     <row r="6">
@@ -283,28 +455,28 @@
         <v>0.0050000000000000001</v>
       </c>
       <c r="B6">
-        <v>1</v>
+        <v>-22</v>
       </c>
       <c r="C6">
-        <v>0.051844230188109304</v>
+        <v>1.3592824063210021</v>
       </c>
       <c r="D6">
-        <v>21.36336465442476</v>
+        <v>-0.28700225461780515</v>
       </c>
       <c r="E6">
-        <v>4620.8678760241983</v>
+        <v>-57.378451691186356</v>
       </c>
       <c r="F6">
-        <v>0.00028442406944248299</v>
+        <v>0.022404221488429084</v>
       </c>
       <c r="G6">
-        <v>0.00051312058996581052</v>
+        <v>-0.0051174670179151664</v>
       </c>
       <c r="H6">
-        <v>1.8788030644777836</v>
+        <v>77.895945294922015</v>
       </c>
       <c r="I6">
-        <v>2</v>
+        <v>78</v>
       </c>
     </row>
     <row r="7">
@@ -312,28 +484,28 @@
         <v>0.0060000000000000001</v>
       </c>
       <c r="B7">
-        <v>1</v>
+        <v>-22</v>
       </c>
       <c r="C7">
-        <v>0.075541313483814654</v>
+        <v>1.3589667247091155</v>
       </c>
       <c r="D7">
-        <v>26.030801936985945</v>
+        <v>-0.34436096915535663</v>
       </c>
       <c r="E7">
-        <v>4667.4372825611854</v>
+        <v>-57.358714537551492</v>
       </c>
       <c r="F7">
-        <v>0.00029653283227285275</v>
+        <v>0.022405197845068007</v>
       </c>
       <c r="G7">
-        <v>0.00076240104974903931</v>
+        <v>-0.0050779357225743497</v>
       </c>
       <c r="H7">
-        <v>2.9704555818833973</v>
+        <v>77.881145048580109</v>
       </c>
       <c r="I7">
-        <v>3</v>
+        <v>78</v>
       </c>
     </row>
     <row r="8">
@@ -341,28 +513,28 @@
         <v>0.0070000000000000001</v>
       </c>
       <c r="B8">
-        <v>1</v>
+        <v>-22</v>
       </c>
       <c r="C8">
-        <v>0.10377832354867657</v>
+        <v>1.3585936964104093</v>
       </c>
       <c r="D8">
-        <v>30.443218192737859</v>
+        <v>-0.40169562825730859</v>
       </c>
       <c r="E8">
-        <v>4412.4162557519121</v>
+        <v>-57.334659101951935</v>
       </c>
       <c r="F8">
-        <v>0.0003185976084706171</v>
+        <v>0.022406394791808636</v>
       </c>
       <c r="G8">
-        <v>0.0011019460189837002</v>
+        <v>-0.0050296307195237689</v>
       </c>
       <c r="H8">
-        <v>4.3281984414972774</v>
+        <v>77.863057824549131</v>
       </c>
       <c r="I8">
-        <v>5</v>
+        <v>78</v>
       </c>
     </row>
     <row r="9">
@@ -370,28 +542,28 @@
         <v>0.0080000000000000002</v>
       </c>
       <c r="B9">
-        <v>1</v>
+        <v>-22</v>
       </c>
       <c r="C9">
-        <v>0.13609553864294358</v>
+        <v>1.3581633476191228</v>
       </c>
       <c r="D9">
-        <v>34.191211995796159</v>
+        <v>-0.45900195431541102</v>
       </c>
       <c r="E9">
-        <v>3747.9938030583012</v>
+        <v>-57.306326058102414</v>
       </c>
       <c r="F9">
-        <v>0.00035586676474763727</v>
+        <v>0.022407814494926525</v>
       </c>
       <c r="G9">
-        <v>0.0015496104648723232</v>
+        <v>-0.0049725588208349089</v>
       </c>
       <c r="H9">
-        <v>5.9460599442822923</v>
+        <v>77.841684877394314</v>
       </c>
       <c r="I9">
-        <v>6</v>
+        <v>78</v>
       </c>
     </row>
     <row r="10">
@@ -399,3508 +571,3508 @@
         <v>0.0090000000000000011</v>
       </c>
       <c r="B10">
-        <v>1</v>
+        <v>-22</v>
       </c>
       <c r="C10">
-        <v>0.17165421080644133</v>
+        <v>1.3576757087831064</v>
       </c>
       <c r="D10">
-        <v>36.926132331199355</v>
+        <v>-0.51627571771770076</v>
       </c>
       <c r="E10">
-        <v>2734.9203354031979</v>
+        <v>-57.273763402289745</v>
       </c>
       <c r="F10">
-        <v>0.0004151279964004101</v>
+        <v>0.022409459511519795</v>
       </c>
       <c r="G10">
-        <v>0.0021269923345943512</v>
+        <v>-0.0049067281227753792</v>
       </c>
       <c r="H10">
-        <v>7.7976999748002704</v>
+        <v>77.81702770793504</v>
       </c>
       <c r="I10">
-        <v>8</v>
+        <v>78</v>
       </c>
     </row>
     <row r="11">
       <c r="A11">
-        <v>0.01</v>
+        <v>0.010000000000000002</v>
       </c>
       <c r="B11">
-        <v>1</v>
+        <v>-22</v>
       </c>
       <c r="C11">
-        <v>0.20938928075815127</v>
+        <v>1.357130814552191</v>
       </c>
       <c r="D11">
-        <v>38.544007572220565</v>
+        <v>-0.57351274411319209</v>
       </c>
       <c r="E11">
-        <v>1617.875241021208</v>
+        <v>-57.237026395491284</v>
       </c>
       <c r="F11">
-        <v>0.00050328120915953795</v>
+        <v>0.022411332788726035</v>
       </c>
       <c r="G11">
-        <v>0.00284748929115901</v>
+        <v>-0.0048321479975610843</v>
       </c>
       <c r="H11">
-        <v>9.8350618148580153</v>
+        <v>77.789088060704628</v>
       </c>
       <c r="I11">
-        <v>10</v>
+        <v>78</v>
       </c>
     </row>
     <row r="12">
       <c r="A12">
-        <v>0.010999999999999999</v>
+        <v>0.011000000000000003</v>
       </c>
       <c r="B12">
-        <v>1</v>
+        <v>-22</v>
       </c>
       <c r="C12">
-        <v>0.24826383144479017</v>
+        <v>1.3565287037193294</v>
       </c>
       <c r="D12">
-        <v>39.205093801057217</v>
+        <v>-0.6307089216099262</v>
       </c>
       <c r="E12">
-        <v>661.08622883665362</v>
+        <v>-57.196177496734101</v>
       </c>
       <c r="F12">
-        <v>0.00062671114072212326</v>
+        <v>0.022413437662820848</v>
       </c>
       <c r="G12">
-        <v>0.0037183927642380921</v>
+        <v>-0.0047488290837673173</v>
       </c>
       <c r="H12">
-        <v>11.997122062721928</v>
+        <v>77.757867920992155</v>
       </c>
       <c r="I12">
-        <v>12</v>
+        <v>78</v>
       </c>
     </row>
     <row r="13">
       <c r="A13">
-        <v>0.012</v>
+        <v>0.012000000000000004</v>
       </c>
       <c r="B13">
-        <v>1</v>
+        <v>-22</v>
       </c>
       <c r="C13">
-        <v>0.28746268584114759</v>
+        <v>1.3558694191545755</v>
       </c>
       <c r="D13">
-        <v>39.192614991657599</v>
+        <v>-0.68786020789785873</v>
       </c>
       <c r="E13">
-        <v>-12.478809399620287</v>
+        <v>-57.151286287932486</v>
       </c>
       <c r="F13">
-        <v>0.00079087187061845424</v>
+        <v>0.022415777858201404</v>
       </c>
       <c r="G13">
-        <v>0.0047415260917341873</v>
+        <v>-0.0046567832754145387</v>
       </c>
       <c r="H13">
-        <v>14.224469747533732</v>
+        <v>77.723369511470082</v>
       </c>
       <c r="I13">
-        <v>15</v>
+        <v>78</v>
       </c>
     </row>
     <row r="14">
       <c r="A14">
-        <v>0.013000000000000001</v>
+        <v>0.013000000000000005</v>
       </c>
       <c r="B14">
-        <v>1</v>
+        <v>-22</v>
       </c>
       <c r="C14">
-        <v>0.32644568883691111</v>
+        <v>1.3551530077319824</v>
       </c>
       <c r="D14">
-        <v>38.773390999869449</v>
+        <v>-0.74496263728831824</v>
       </c>
       <c r="E14">
-        <v>-419.22399178814732</v>
+        <v>-57.102429390459548</v>
       </c>
       <c r="F14">
-        <v>0.0009992486735937371</v>
+        <v>0.022418357486258804</v>
       </c>
       <c r="G14">
-        <v>0.0059098970925276252</v>
+        <v>-0.0045560237097454596</v>
       </c>
       <c r="H14">
-        <v>16.470398666192846</v>
+        <v>77.685595288411548</v>
       </c>
       <c r="I14">
-        <v>17</v>
+        <v>78</v>
       </c>
     </row>
     <row r="15">
       <c r="A15">
-        <v>0.014</v>
+        <v>0.014000000000000005</v>
       </c>
       <c r="B15">
-        <v>1</v>
+        <v>-22</v>
       </c>
       <c r="C15">
-        <v>0.36490201639977676</v>
+        <v>1.3543795202495073</v>
       </c>
       <c r="D15">
-        <v>38.139264125861956</v>
+        <v>-0.80201232766205632</v>
       </c>
       <c r="E15">
-        <v>-634.12687400749178</v>
+        <v>-57.04969037373813</v>
       </c>
       <c r="F15">
-        <v>0.0012545540930900447</v>
+        <v>0.022421181044143756</v>
       </c>
       <c r="G15">
-        <v>0.0072154909006546877</v>
+        <v>-0.0044465647537131735</v>
       </c>
       <c r="H15">
-        <v>18.703960210595937</v>
+        <v>77.644547937502011</v>
       </c>
       <c r="I15">
-        <v>19</v>
+        <v>78</v>
       </c>
     </row>
     <row r="16">
       <c r="A16">
-        <v>0.014999999999999999</v>
+        <v>0.015000000000000006</v>
       </c>
       <c r="B16">
-        <v>1</v>
+        <v>-22</v>
       </c>
       <c r="C16">
-        <v>0.40267686641292472</v>
+        <v>1.3535490113420172</v>
       </c>
       <c r="D16">
-        <v>37.410435900433988</v>
+        <v>-0.85900548731822823</v>
       </c>
       <c r="E16">
-        <v>-728.82822542796907</v>
+        <v>-56.993159656171883</v>
       </c>
       <c r="F16">
-        <v>0.0015589531395593208</v>
+        <v>0.02242425341343017</v>
       </c>
       <c r="G16">
-        <v>0.0086491059119985243</v>
+        <v>-0.0043284219892007411</v>
       </c>
       <c r="H16">
-        <v>20.90734547552076</v>
+        <v>77.600230369249985</v>
       </c>
       <c r="I16">
-        <v>21</v>
+        <v>78</v>
       </c>
     </row>
     <row r="17">
       <c r="A17">
-        <v>0.016</v>
+        <v>0.016000000000000007</v>
       </c>
       <c r="B17">
-        <v>1</v>
+        <v>-22</v>
       </c>
       <c r="C17">
-        <v>0.43971054896321976</v>
+        <v>1.3526615393874994</v>
       </c>
       <c r="D17">
-        <v>36.6569292001561</v>
+        <v>-0.91593842171698336</v>
       </c>
       <c r="E17">
-        <v>-753.5067002778909</v>
+        <v>-56.932934398755087</v>
       </c>
       <c r="F17">
-        <v>0.0019145049632312747</v>
+        <v>0.022427579858681993</v>
       </c>
       <c r="G17">
-        <v>0.010200765850004559</v>
+        <v>-0.0042016121969967023</v>
       </c>
       <c r="H17">
-        <v>23.071684953013836</v>
+        <v>77.552645714002779</v>
       </c>
       <c r="I17">
-        <v>24</v>
+        <v>78</v>
       </c>
     </row>
     <row r="18">
       <c r="A18">
-        <v>0.017000000000000001</v>
+        <v>0.017000000000000008</v>
       </c>
       <c r="B18">
-        <v>1</v>
+        <v>-22</v>
       </c>
       <c r="C18">
-        <v>0.47599792625916298</v>
+        <v>1.3517171664065866</v>
       </c>
       <c r="D18">
-        <v>35.917825391730339</v>
+        <v>-0.97280754010870896</v>
       </c>
       <c r="E18">
-        <v>-739.10380842575751</v>
+        <v>-56.869118391725621</v>
       </c>
       <c r="F18">
-        <v>0.0023227051601013896</v>
+        <v>0.022431166025928824</v>
       </c>
       <c r="G18">
-        <v>0.011857461320182196</v>
+        <v>-0.0040661533395501956</v>
       </c>
       <c r="H18">
-        <v>25.193558662973029</v>
+        <v>77.501797316572691</v>
       </c>
       <c r="I18">
-        <v>26</v>
+        <v>78</v>
       </c>
     </row>
     <row r="19">
       <c r="A19">
-        <v>0.018000000000000002</v>
+        <v>0.018000000000000009</v>
       </c>
       <c r="B19">
-        <v>1</v>
+        <v>-22</v>
       </c>
       <c r="C19">
-        <v>0.51156384749024864</v>
+        <v>1.3507159579555106</v>
       </c>
       <c r="D19">
-        <v>35.214017070441024</v>
+        <v>-1.0296093620433651</v>
       </c>
       <c r="E19">
-        <v>-703.80832128931445</v>
+        <v>-56.801821934656033</v>
       </c>
       <c r="F19">
-        <v>0.0027843832036350113</v>
+        <v>0.022435017941056401</v>
       </c>
       <c r="G19">
-        <v>0.013603271598112771</v>
+        <v>-0.0039220645425331827</v>
       </c>
       <c r="H19">
-        <v>27.272672231629418</v>
+        <v>77.447688730480195</v>
       </c>
       <c r="I19">
-        <v>28</v>
+        <v>78</v>
       </c>
     </row>
     <row r="20">
       <c r="A20">
-        <v>0.019</v>
+        <v>0.01900000000000001</v>
       </c>
       <c r="B20">
-        <v>1</v>
+        <v>-22</v>
       </c>
       <c r="C20">
-        <v>0.54644894246444842</v>
+        <v>1.3496579830126119</v>
       </c>
       <c r="D20">
-        <v>34.556172877958517</v>
+        <v>-1.0863405237537549</v>
       </c>
       <c r="E20">
-        <v>-657.84419248251015</v>
+        <v>-56.731161710389827</v>
       </c>
       <c r="F20">
-        <v>0.0033002489150628402</v>
+        <v>0.022439142008118321</v>
       </c>
       <c r="G20">
-        <v>0.015420211056898461</v>
+        <v>-0.0037693660752378434</v>
       </c>
       <c r="H20">
-        <v>29.310449412665356</v>
+        <v>77.390323711820713</v>
       </c>
       <c r="I20">
-        <v>30</v>
+        <v>78</v>
       </c>
     </row>
     <row r="21">
       <c r="A21">
-        <v>0.02</v>
+        <v>0.020000000000000011</v>
       </c>
       <c r="B21">
-        <v>1</v>
+        <v>-22</v>
       </c>
       <c r="C21">
-        <v>0.58070167240310999</v>
+        <v>1.3485433138585314</v>
       </c>
       <c r="D21">
-        <v>33.949286999364631</v>
+        <v>-1.1429977844070103</v>
       </c>
       <c r="E21">
-        <v>-606.8858785938877</v>
+        <v>-56.657260653255371</v>
       </c>
       <c r="F21">
-        <v>0.0038705335609913712</v>
+        <v>0.022443545007575831</v>
       </c>
       <c r="G21">
-        <v>0.017287129666584591</v>
+        <v>-0.0036080793298391804</v>
       </c>
       <c r="H21">
-        <v>31.309218122600047</v>
+        <v>77.329706212762019</v>
       </c>
       <c r="I21">
-        <v>32</v>
+        <v>78</v>
       </c>
     </row>
     <row r="22">
       <c r="A22">
-        <v>0.021000000000000001</v>
+        <v>0.021000000000000012</v>
       </c>
       <c r="B22">
-        <v>1</v>
+        <v>-22</v>
       </c>
       <c r="C22">
-        <v>0.61437394200965134</v>
+        <v>1.3473720259502184</v>
       </c>
       <c r="D22">
-        <v>33.395252213718081</v>
+        <v>-1.1995780322190219</v>
       </c>
       <c r="E22">
-        <v>-554.03478564654858</v>
+        <v>-56.580247812011585</v>
       </c>
       <c r="F22">
-        <v>0.0044949183936194986</v>
+        <v>0.02244823409447283</v>
       </c>
       <c r="G22">
-        <v>0.019179660894834256</v>
+        <v>-0.0034382267995546729</v>
       </c>
       <c r="H22">
-        <v>33.271754984886755</v>
+        <v>77.265840374679783</v>
       </c>
       <c r="I22">
-        <v>34</v>
+        <v>78</v>
       </c>
     </row>
     <row r="23">
       <c r="A23">
-        <v>0.021999999999999999</v>
+        <v>0.022000000000000013</v>
       </c>
       <c r="B23">
-        <v>1</v>
+        <v>-22</v>
       </c>
       <c r="C23">
-        <v>0.64751872161511959</v>
+        <v>1.3461441977888955</v>
       </c>
       <c r="D23">
-        <v>32.894306997218393</v>
+        <v>-1.2560782904270094</v>
       </c>
       <c r="E23">
-        <v>-500.94521649968851</v>
+        <v>-56.500258207987329</v>
       </c>
       <c r="F23">
-        <v>0.005172476335567975</v>
+        <v>0.02245321679655362</v>
       </c>
       <c r="G23">
-        <v>0.021070381684571135</v>
+        <v>-0.0032598320557333323</v>
       </c>
       <c r="H23">
-        <v>35.201033919968211</v>
+        <v>77.198730520938753</v>
       </c>
       <c r="I23">
-        <v>36</v>
+        <v>78</v>
       </c>
     </row>
     <row r="24">
       <c r="A24">
-        <v>0.023</v>
+        <v>0.023000000000000013</v>
       </c>
       <c r="B24">
-        <v>1</v>
+        <v>-22</v>
       </c>
       <c r="C24">
-        <v>0.68018879941513966</v>
+        <v>1.3448599107821242</v>
       </c>
       <c r="D24">
-        <v>32.445848602821741</v>
+        <v>-1.3124957231159098</v>
       </c>
       <c r="E24">
-        <v>-448.45839439665332</v>
+        <v>-56.417432688900362</v>
       </c>
       <c r="F24">
-        <v>0.005901630650151723</v>
+        <v>0.02245850101233118</v>
       </c>
       <c r="G24">
-        <v>0.022929169988612334</v>
+        <v>-0.0030729197239085407</v>
       </c>
       <c r="H24">
-        <v>37.100089904252826</v>
+        <v>77.128381149327637</v>
       </c>
       <c r="I24">
-        <v>38</v>
+        <v>78</v>
       </c>
     </row>
     <row r="25">
       <c r="A25">
-        <v>0.024</v>
+        <v>0.024000000000000014</v>
       </c>
       <c r="B25">
-        <v>1</v>
+        <v>-22</v>
       </c>
       <c r="C25">
-        <v>0.71243621865135909</v>
+        <v>1.3435192491001189</v>
       </c>
       <c r="D25">
-        <v>32.048989869617216</v>
+        <v>-1.3688276408947586</v>
       </c>
       <c r="E25">
-        <v>-396.8587332045218</v>
+        <v>-56.331917778848819</v>
       </c>
       <c r="F25">
-        <v>0.0066801525109579903</v>
+        <v>0.022464095009114241</v>
       </c>
       <c r="G25">
-        <v>0.024722631760216295</v>
+        <v>-0.0028775154588507618</v>
       </c>
       <c r="H25">
-        <v>38.971947478558022</v>
+        <v>77.05479692415615</v>
       </c>
       <c r="I25">
-        <v>39</v>
+        <v>78</v>
       </c>
     </row>
     <row r="26">
       <c r="A26">
-        <v>0.025000000000000001</v>
+        <v>0.025000000000000015</v>
       </c>
       <c r="B26">
-        <v>1</v>
+        <v>-22</v>
       </c>
       <c r="C26">
-        <v>0.74431224987794364</v>
+        <v>1.3421222860447668</v>
       </c>
       <c r="D26">
-        <v>31.703072583551783</v>
+        <v>-1.4250984698093225</v>
       </c>
       <c r="E26">
-        <v>-345.91728606543165</v>
+        <v>-56.270828914564007</v>
       </c>
       <c r="F26">
-        <v>0.0075049010695442085</v>
+        <v>0.022468710637460511</v>
       </c>
       <c r="G26">
-        <v>0.026411171985794075</v>
+        <v>-0.0026741937505753905</v>
       </c>
       <c r="H26">
-        <v>40.819588500982377</v>
+        <v>76.977982668022335</v>
       </c>
       <c r="I26">
-        <v>41</v>
+        <v>77</v>
       </c>
     </row>
     <row r="27">
       <c r="A27">
-        <v>0.026000000000000002</v>
+        <v>0.026000000000000016</v>
       </c>
       <c r="B27">
-        <v>1</v>
+        <v>-22</v>
       </c>
       <c r="C27">
-        <v>0.77586731432609446</v>
+        <v>1.3406690483916255</v>
       </c>
       <c r="D27">
-        <v>31.407056312749866</v>
+        <v>-1.4813768364730497</v>
       </c>
       <c r="E27">
-        <v>-296.01627080191844</v>
+        <v>-56.278366663727205</v>
       </c>
       <c r="F27">
-        <v>0.0083718091518336004</v>
+        <v>0.022470237769392398</v>
       </c>
       <c r="G27">
-        <v>0.027962140508645011</v>
+        <v>-0.0024638855326598592</v>
       </c>
       <c r="H27">
-        <v>42.645950557892895</v>
+        <v>76.897942580814956</v>
       </c>
       <c r="I27">
-        <v>43</v>
+        <v>77</v>
       </c>
     </row>
     <row r="28">
       <c r="A28">
-        <v>0.027</v>
+        <v>0.027000000000000017</v>
       </c>
       <c r="B28">
-        <v>1</v>
+        <v>-22</v>
       </c>
       <c r="C28">
-        <v>0.80715083647410335</v>
+        <v>1.3391595277855652</v>
       </c>
       <c r="D28">
-        <v>31.159987983268003</v>
+        <v>-1.5376643756473933</v>
       </c>
       <c r="E28">
-        <v>-247.06832948186258</v>
+        <v>-56.287539174343486</v>
       </c>
       <c r="F28">
-        <v>0.0092763201886135113</v>
+        <v>0.022471914626666756</v>
       </c>
       <c r="G28">
-        <v>0.029340225585572022</v>
+        <v>-0.0022452530923368287</v>
       </c>
       <c r="H28">
-        <v>44.45392257303525</v>
+        <v>76.814678196660466</v>
       </c>
       <c r="I28">
-        <v>45</v>
+        <v>77</v>
       </c>
     </row>
     <row r="29">
       <c r="A29">
-        <v>0.028000000000000001</v>
+        <v>0.028000000000000018</v>
       </c>
       <c r="B29">
-        <v>1</v>
+        <v>-22</v>
       </c>
       <c r="C29">
-        <v>0.8382113565261482</v>
+        <v>1.3375937141588259</v>
       </c>
       <c r="D29">
-        <v>30.961052120821648</v>
+        <v>-1.5939628778317301</v>
       </c>
       <c r="E29">
-        <v>-198.93586244635506</v>
+        <v>-56.298502184336712</v>
       </c>
       <c r="F29">
-        <v>0.010213229367100509</v>
+        <v>0.022473751669127667</v>
       </c>
       <c r="G29">
-        <v>0.030511198202517409</v>
+        <v>-0.0020183126752072967</v>
       </c>
       <c r="H29">
-        <v>46.246336360420194</v>
+        <v>76.728189036845194</v>
       </c>
       <c r="I29">
-        <v>47</v>
+        <v>77</v>
       </c>
     </row>
     <row r="30">
       <c r="A30">
-        <v>0.029000000000000001</v>
+        <v>0.029000000000000019</v>
       </c>
       <c r="B30">
-        <v>1</v>
+        <v>-22</v>
       </c>
       <c r="C30">
-        <v>0.86909668644973392</v>
+        <v>1.3359715955724101</v>
       </c>
       <c r="D30">
-        <v>30.809607726349768</v>
+        <v>-1.6502742949998759</v>
       </c>
       <c r="E30">
-        <v>-151.4443944718804</v>
+        <v>-56.311417168145731</v>
       </c>
       <c r="F30">
-        <v>0.011176722939868981</v>
+        <v>0.022475759765740212</v>
       </c>
       <c r="G30">
-        <v>0.031442634711547374</v>
+        <v>-0.0017830809511244626</v>
       </c>
       <c r="H30">
-        <v>48.025973068883822</v>
+        <v>76.638474524528945</v>
       </c>
       <c r="I30">
-        <v>49</v>
+        <v>77</v>
       </c>
     </row>
     <row r="31">
       <c r="A31">
-        <v>0.029999999999999999</v>
+        <v>0.03000000000000002</v>
       </c>
       <c r="B31">
-        <v>1</v>
+        <v>-22</v>
       </c>
       <c r="C31">
-        <v>0.89985447824037634</v>
+        <v>1.3342931580517479</v>
       </c>
       <c r="D31">
-        <v>30.705975854934948</v>
+        <v>-1.706600746324473</v>
       </c>
       <c r="E31">
-        <v>-103.63187141482052</v>
+        <v>-56.326451324597151</v>
       </c>
       <c r="F31">
-        <v>0.012157757822448493</v>
+        <v>0.022477950195602055</v>
       </c>
       <c r="G31">
-        <v>0.032083555018571998</v>
+        <v>-0.001539574991720099</v>
       </c>
       <c r="H31">
-        <v>49.795572122374395</v>
+        <v>76.545533975657591</v>
       </c>
       <c r="I31">
-        <v>50</v>
+        <v>77</v>
       </c>
     </row>
     <row r="32">
       <c r="A32">
-        <v>0.031</v>
+        <v>0.031000000000000021</v>
       </c>
       <c r="B32">
-        <v>1</v>
+        <v>-22</v>
       </c>
       <c r="C32">
-        <v>0.93053246770658116</v>
+        <v>1.3325583854166394</v>
       </c>
       <c r="D32">
-        <v>30.650003077474704</v>
+        <v>-1.7629445238926671</v>
       </c>
       <c r="E32">
-        <v>-55.972777460243485</v>
+        <v>-56.343777568194184</v>
       </c>
       <c r="F32">
-        <v>0.013149955671626683</v>
+        <v>0.022480334649092989</v>
       </c>
       <c r="G32">
-        <v>0.032420351562304973</v>
+        <v>-0.001287812247288619</v>
       </c>
       <c r="H32">
-        <v>51.557863779120332</v>
+        <v>76.449366589547253</v>
       </c>
       <c r="I32">
-        <v>52</v>
+        <v>77</v>
       </c>
     </row>
     <row r="33">
       <c r="A33">
-        <v>0.032000000000000001</v>
+        <v>0.032000000000000021</v>
       </c>
       <c r="B33">
-        <v>1</v>
+        <v>-22</v>
       </c>
       <c r="C33">
-        <v>0.96117831822015121</v>
+        <v>1.3307672591054847</v>
       </c>
       <c r="D33">
-        <v>30.64169794966547</v>
+        <v>-1.8193080984168981</v>
       </c>
       <c r="E33">
-        <v>-8.3051278092318999</v>
+        <v>-56.363574524231112</v>
       </c>
       <c r="F33">
-        <v>0.014145840873105381</v>
+        <v>0.022482925229173535</v>
       </c>
       <c r="G33">
-        <v>0.032432588137646677</v>
+        <v>-0.0010278105230491267</v>
       </c>
       <c r="H33">
-        <v>53.315583099480676</v>
+        <v>76.349971439140745</v>
       </c>
       <c r="I33">
-        <v>54</v>
+        <v>77</v>
       </c>
     </row>
     <row r="34">
       <c r="A34">
-        <v>0.033000000000000002</v>
+        <v>0.033000000000000022</v>
       </c>
       <c r="B34">
-        <v>1</v>
+        <v>-22</v>
       </c>
       <c r="C34">
-        <v>0.99183986274792457</v>
+        <v>1.3289197579938039</v>
       </c>
       <c r="D34">
-        <v>30.681391105881364</v>
+        <v>-1.8756941249450281</v>
       </c>
       <c r="E34">
-        <v>39.693156215893062</v>
+        <v>-56.386026528129911</v>
       </c>
       <c r="F34">
-        <v>0.015137184658913189</v>
+        <v>0.022485734452843881</v>
       </c>
       <c r="G34">
-        <v>0.032100751927219576</v>
+        <v>-0.00075958795480563922</v>
       </c>
       <c r="H34">
-        <v>55.071460993497062</v>
+        <v>76.247347460936751</v>
       </c>
       <c r="I34">
-        <v>56</v>
+        <v>77</v>
       </c>
     </row>
     <row r="35">
       <c r="A35">
-        <v>0.034000000000000002</v>
+        <v>0.034000000000000023</v>
       </c>
       <c r="B35">
-        <v>1</v>
+        <v>-22</v>
       </c>
       <c r="C35">
-        <v>1.0225657400668262</v>
+        <v>1.3270158582070444</v>
       </c>
       <c r="D35">
-        <v>30.7703635319216</v>
+        <v>-1.9321054485744584</v>
       </c>
       <c r="E35">
-        <v>88.972426040237266</v>
+        <v>-56.411323629430392</v>
       </c>
       <c r="F35">
-        <v>0.016110577133039997</v>
+        <v>0.022488775252774908</v>
       </c>
       <c r="G35">
-        <v>0.031387312003307466</v>
+        <v>-0.00048316298402515604</v>
       </c>
       <c r="H35">
-        <v>56.828238088290917</v>
+        <v>76.141493444591717</v>
       </c>
       <c r="I35">
-        <v>57</v>
+        <v>77</v>
       </c>
     </row>
     <row r="36">
       <c r="A36">
-        <v>0.035000000000000003</v>
+        <v>0.035000000000000024</v>
       </c>
       <c r="B36">
-        <v>1</v>
+        <v>-22</v>
       </c>
       <c r="C36">
-        <v>1.0534058945370166</v>
+        <v>1.3250555329276696</v>
       </c>
       <c r="D36">
-        <v>30.90994540845892</v>
+        <v>-1.9885451101753124</v>
       </c>
       <c r="E36">
-        <v>139.58187653732224</v>
+        <v>-56.439661600854066</v>
       </c>
       <c r="F36">
-        <v>0.017057677732590926</v>
+        <v>0.022492060979123554</v>
       </c>
       <c r="G36">
-        <v>0.030290878336382731</v>
+        <v>-0.0001985543323542319</v>
       </c>
       <c r="H36">
-        <v>58.588701180500728</v>
+        <v>76.032408022194531</v>
       </c>
       <c r="I36">
-        <v>59</v>
+        <v>77</v>
       </c>
     </row>
     <row r="37">
       <c r="A37">
-        <v>0.036000000000000004</v>
+        <v>0.036000000000000025</v>
       </c>
       <c r="B37">
-        <v>1</v>
+        <v>-22</v>
       </c>
       <c r="C37">
-        <v>1.0844117677573053</v>
+        <v>1.3230387041963525</v>
       </c>
       <c r="D37">
-        <v>31.101801032118274</v>
+        <v>-2.0451123524590016</v>
       </c>
       <c r="E37">
-        <v>191.85562365935397</v>
+        <v>-56.567242283689133</v>
       </c>
       <c r="F37">
-        <v>0.017970186397546759</v>
+        <v>0.022490941677285832</v>
       </c>
       <c r="G37">
-        <v>0.028809857019060865</v>
+        <v>9.140507964203572e-05</v>
       </c>
       <c r="H37">
-        <v>60.355711871174151</v>
+        <v>75.920089657213552</v>
       </c>
       <c r="I37">
-        <v>61</v>
+        <v>76</v>
       </c>
     </row>
     <row r="38">
       <c r="A38">
-        <v>0.036999999999999998</v>
+        <v>0.037000000000000026</v>
       </c>
       <c r="B38">
-        <v>1</v>
+        <v>-22</v>
       </c>
       <c r="C38">
-        <v>1.1156368361288225</v>
+        <v>1.3209652212938492</v>
       </c>
       <c r="D38">
-        <v>31.348335710916214</v>
+        <v>-2.1018534525474726</v>
       </c>
       <c r="E38">
-        <v>246.53467879794093</v>
+        <v>-56.741100088471072</v>
       </c>
       <c r="F38">
-        <v>0.018837462178328632</v>
+        <v>0.022488019467595752</v>
       </c>
       <c r="G38">
-        <v>0.026935059940159281</v>
+        <v>0.00038824433652178835</v>
       </c>
       <c r="H38">
-        <v>62.132217546814395</v>
+        <v>75.804533882908359</v>
       </c>
       <c r="I38">
-        <v>63</v>
+        <v>76</v>
       </c>
     </row>
     <row r="39">
       <c r="A39">
-        <v>0.037999999999999999</v>
+        <v>0.038000000000000027</v>
       </c>
       <c r="B39">
-        <v>1</v>
+        <v>-22</v>
       </c>
       <c r="C39">
-        <v>1.1471375551417369</v>
+        <v>1.318834906572643</v>
       </c>
       <c r="D39">
-        <v>31.653102314912864</v>
+        <v>-2.1587759898648584</v>
       </c>
       <c r="E39">
-        <v>304.76660399665218</v>
+        <v>-56.922537317386045</v>
       </c>
       <c r="F39">
-        <v>0.01964472155497626</v>
+        <v>0.022485201267716151</v>
       </c>
       <c r="G39">
-        <v>0.02464882140379145</v>
+        <v>0.00069309782061217039</v>
       </c>
       <c r="H39">
-        <v>63.921282179509774</v>
+        <v>75.685732063702389</v>
       </c>
       <c r="I39">
-        <v>64</v>
+        <v>76</v>
       </c>
     </row>
     <row r="40">
       <c r="A40">
-        <v>0.039</v>
+        <v>0.039000000000000028</v>
       </c>
       <c r="B40">
-        <v>1</v>
+        <v>-22</v>
       </c>
       <c r="C40">
-        <v>1.1789745496093911</v>
+        <v>1.3166475746824897</v>
       </c>
       <c r="D40">
-        <v>32.020886620395387</v>
+        <v>-2.2158877904415499</v>
       </c>
       <c r="E40">
-        <v>367.7843054825218</v>
+        <v>-57.111800576691586</v>
       </c>
       <c r="F40">
-        <v>0.02037682097831111</v>
+        <v>0.022482502326443499</v>
       </c>
       <c r="G40">
-        <v>0.021940271432167299</v>
+        <v>0.0010059646647795205</v>
       </c>
       <c r="H40">
-        <v>65.726140430577274</v>
+        <v>75.563674021142688</v>
       </c>
       <c r="I40">
-        <v>66</v>
+        <v>76</v>
       </c>
     </row>
     <row r="41">
       <c r="A41">
-        <v>0.040000000000000001</v>
+        <v>0.040000000000000029</v>
       </c>
       <c r="B41">
-        <v>1</v>
+        <v>-22</v>
       </c>
       <c r="C41">
-        <v>1.2112137765569704</v>
+        <v>1.3144030323192772</v>
       </c>
       <c r="D41">
-        <v>32.457567274762852</v>
+        <v>-2.2731969359834121</v>
       </c>
       <c r="E41">
-        <v>436.68065436746127</v>
+        <v>-57.30914554186235</v>
       </c>
       <c r="F41">
-        <v>0.021025498703713043</v>
+        <v>0.022479938374684531</v>
       </c>
       <c r="G41">
-        <v>0.018817631932800404</v>
+        <v>0.0013268442762543729</v>
       </c>
       <c r="H41">
-        <v>67.550265845955209</v>
+        <v>75.438349135442522</v>
       </c>
       <c r="I41">
-        <v>68</v>
+        <v>76</v>
       </c>
     </row>
     <row r="42">
       <c r="A42">
-        <v>0.041000000000000002</v>
+        <v>0.041000000000000029</v>
       </c>
       <c r="B42">
-        <v>1</v>
+        <v>-22</v>
       </c>
       <c r="C42">
-        <v>1.2439280188370292</v>
+        <v>1.312101077964682</v>
       </c>
       <c r="D42">
-        <v>32.970917285354517</v>
+        <v>-2.330711773206692</v>
       </c>
       <c r="E42">
-        <v>513.3500105916637</v>
+        <v>-57.514837223280075</v>
       </c>
       <c r="F42">
-        <v>0.021576245901585814</v>
+        <v>0.022477525633429703</v>
       </c>
       <c r="G42">
-        <v>0.015274695008493575</v>
+        <v>0.0016557363590697634</v>
       </c>
       <c r="H42">
-        <v>69.397437484815939</v>
+        <v>75.309746331092128</v>
       </c>
       <c r="I42">
-        <v>70</v>
+        <v>76</v>
       </c>
     </row>
     <row r="43">
       <c r="A43">
-        <v>0.042000000000000003</v>
+        <v>0.04200000000000003</v>
       </c>
       <c r="B43">
-        <v>1</v>
+        <v>-22</v>
       </c>
       <c r="C43">
-        <v>1.2771990396289623</v>
+        <v>1.3097415016163512</v>
       </c>
       <c r="D43">
-        <v>33.571124298511819</v>
+        <v>-2.3884409234547701</v>
       </c>
       <c r="E43">
-        <v>600.20701315730037</v>
+        <v>-57.729150248078085</v>
       </c>
       <c r="F43">
-        <v>0.022013138887240005</v>
+        <v>0.022475280822175335</v>
       </c>
       <c r="G43">
-        <v>0.011308686590799883</v>
+        <v>0.0019926409370497932</v>
       </c>
       <c r="H43">
-        <v>71.271825497431735</v>
+        <v>75.177854061942057</v>
       </c>
       <c r="I43">
-        <v>72</v>
+        <v>76</v>
       </c>
     </row>
     <row r="44">
       <c r="A44">
-        <v>0.043000000000000003</v>
+        <v>0.043000000000000031</v>
       </c>
       <c r="B44">
-        <v>1</v>
+        <v>-22</v>
       </c>
       <c r="C44">
-        <v>1.3111203421598929</v>
+        <v>1.3073240845083169</v>
       </c>
       <c r="D44">
-        <v>34.271480763349452</v>
+        <v>-2.4463932926138119</v>
       </c>
       <c r="E44">
-        <v>700.3564648376323</v>
+        <v>-57.952369159041787</v>
       </c>
       <c r="F44">
-        <v>0.022318786839340354</v>
+        <v>0.022473221167816224</v>
       </c>
       <c r="G44">
-        <v>0.0069238001376251967</v>
+        <v>0.0023375583773483895</v>
       </c>
       <c r="H44">
-        <v>73.178114568901506</v>
+        <v>75.042660295743815</v>
       </c>
       <c r="I44">
-        <v>74</v>
+        <v>76</v>
       </c>
     </row>
     <row r="45">
       <c r="A45">
-        <v>0.043999999999999997</v>
+        <v>0.044000000000000032</v>
       </c>
       <c r="B45">
-        <v>1</v>
+        <v>-22</v>
       </c>
       <c r="C45">
-        <v>1.3458007421649123</v>
+        <v>1.3048485422667475</v>
       </c>
       <c r="D45">
-        <v>35.089319246689293</v>
+        <v>-2.5046911905251585</v>
       </c>
       <c r="E45">
-        <v>817.83848333984338</v>
+        <v>-58.297897911346567</v>
       </c>
       <c r="F45">
-        <v>0.022474395074049011</v>
+        <v>0.022465837936898672</v>
       </c>
       <c r="G45">
-        <v>0.0021360543320065612</v>
+        <v>0.0026861903392017706</v>
       </c>
       <c r="H45">
-        <v>75.121662039510284</v>
+        <v>74.904152498130728</v>
       </c>
       <c r="I45">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="46">
       <c r="A46">
-        <v>0.044999999999999998</v>
+        <v>0.045000000000000033</v>
       </c>
       <c r="B46">
-        <v>1</v>
+        <v>-22</v>
       </c>
       <c r="C46">
-        <v>1.3813690584107621</v>
+        <v>1.3023144973606844</v>
       </c>
       <c r="D46">
-        <v>36.047313245010464</v>
+        <v>-2.5633986216010372</v>
       </c>
       <c r="E46">
-        <v>957.99399832116944</v>
+        <v>-58.707431075878809</v>
       </c>
       <c r="F46">
-        <v>0.022459990319112395</v>
+        <v>0.022456031057894066</v>
       </c>
       <c r="G46">
-        <v>-0.0030206526554858531</v>
+        <v>0.003040768380816117</v>
       </c>
       <c r="H46">
-        <v>77.10870259162337</v>
+        <v>74.76231437568245</v>
       </c>
       <c r="I46">
-        <v>78</v>
+        <v>75</v>
       </c>
     </row>
     <row r="47">
       <c r="A47">
-        <v>0.045999999999999999</v>
+        <v>0.046000000000000034</v>
       </c>
       <c r="B47">
-        <v>1</v>
+        <v>-22</v>
       </c>
       <c r="C47">
-        <v>1.4179803856348403</v>
+        <v>1.2997215332076775</v>
       </c>
       <c r="D47">
-        <v>37.175341203145628</v>
+        <v>-2.6225296844131658</v>
       </c>
       <c r="E47">
-        <v>1128.0279581351617</v>
+        <v>-59.131062812128519</v>
       </c>
       <c r="F47">
-        <v>0.022254854732444464</v>
+        <v>0.022446279609242472</v>
       </c>
       <c r="G47">
-        <v>-0.0084876646528136979</v>
+        <v>0.0034032232715561486</v>
       </c>
       <c r="H47">
-        <v>79.146616996897151</v>
+        <v>74.617124297468408</v>
       </c>
       <c r="I47">
-        <v>80</v>
+        <v>75</v>
       </c>
     </row>
     <row r="48">
       <c r="A48">
-        <v>0.047</v>
+        <v>0.047000000000000035</v>
       </c>
       <c r="B48">
-        <v>1</v>
+        <v>-22</v>
       </c>
       <c r="C48">
-        <v>1.4558246798179801</v>
+        <v>1.2970692189198789</v>
       </c>
       <c r="D48">
-        <v>38.513247163133734</v>
+        <v>-2.682098891184145</v>
       </c>
       <c r="E48">
-        <v>1337.905959988107</v>
+        <v>-59.569206770979257</v>
       </c>
       <c r="F48">
-        <v>0.02183820774165279</v>
+        <v>0.022436602183621861</v>
       </c>
       <c r="G48">
-        <v>-0.014174488881676814</v>
+        <v>0.0037735792507340802</v>
       </c>
       <c r="H48">
-        <v>81.244291529209249</v>
+        <v>74.468558395072392</v>
       </c>
       <c r="I48">
-        <v>82</v>
+        <v>75</v>
       </c>
     </row>
     <row r="49">
       <c r="A49">
-        <v>0.048000000000000001</v>
+        <v>0.048000000000000036</v>
       </c>
       <c r="B49">
-        <v>1</v>
+        <v>-22</v>
       </c>
       <c r="C49">
-        <v>1.4951388421708307</v>
+        <v>1.2943571088815577</v>
       </c>
       <c r="D49">
-        <v>40.115077542567469</v>
+        <v>-2.7421211854581058</v>
       </c>
       <c r="E49">
-        <v>1601.8303794337326</v>
+        <v>-60.022294273960703</v>
       </c>
       <c r="F49">
-        <v>0.021190158344446968</v>
+        <v>0.022427017987372067</v>
       </c>
       <c r="G49">
-        <v>-0.019952332681879483</v>
+        <v>0.004151861433457275</v>
       </c>
       <c r="H49">
-        <v>83.412609864554653</v>
+        <v>74.316591980439284</v>
       </c>
       <c r="I49">
-        <v>84</v>
+        <v>75</v>
       </c>
     </row>
     <row r="50">
       <c r="A50">
-        <v>0.049000000000000002</v>
+        <v>0.049000000000000037</v>
       </c>
       <c r="B50">
-        <v>1</v>
+        <v>-22</v>
       </c>
       <c r="C50">
-        <v>1.5362243009094201</v>
+        <v>1.2915847423085496</v>
       </c>
       <c r="D50">
-        <v>42.055839934611306</v>
+        <v>-2.802611960557972</v>
       </c>
       <c r="E50">
-        <v>1940.7623920438336</v>
+        <v>-60.490775099866255</v>
       </c>
       <c r="F50">
-        <v>0.020292927117488556</v>
+        <v>0.022417546858967352</v>
       </c>
       <c r="G50">
-        <v>-0.025649131319968342</v>
+        <v>0.0045380958358824369</v>
       </c>
       <c r="H50">
-        <v>85.665145442465104</v>
+        <v>74.161199521668422</v>
       </c>
       <c r="I50">
-        <v>86</v>
+        <v>75</v>
       </c>
     </row>
     <row r="51">
       <c r="A51">
-        <v>0.050000000000000003</v>
+        <v>0.050000000000000037</v>
       </c>
       <c r="B51">
-        <v>1</v>
+        <v>-22</v>
       </c>
       <c r="C51">
-        <v>1.5794736051805109</v>
+        <v>1.2887516427888333</v>
       </c>
       <c r="D51">
-        <v>44.44276860757013</v>
+        <v>-2.8635870788744708</v>
       </c>
       <c r="E51">
-        <v>2386.9286729588239</v>
+        <v>-60.975118316498701</v>
       </c>
       <c r="F51">
-        <v>0.019131333402958396</v>
+        <v>0.022408209288410232</v>
       </c>
       <c r="G51">
-        <v>-0.031044750312651224</v>
+        <v>0.0049323094013195012</v>
       </c>
       <c r="H51">
-        <v>88.019168827545172</v>
+        <v>74.002354617771914</v>
       </c>
       <c r="I51">
-        <v>89</v>
+        <v>75</v>
       </c>
     </row>
     <row r="52">
       <c r="A52">
-        <v>0.051000000000000004</v>
+        <v>0.051000000000000038</v>
       </c>
       <c r="B52">
-        <v>1</v>
+        <v>-22</v>
       </c>
       <c r="C52">
-        <v>1.625412403750035</v>
+        <v>1.285857224940572</v>
       </c>
       <c r="D52">
-        <v>47.434828531478104</v>
+        <v>-2.9252486176483163</v>
       </c>
       <c r="E52">
-        <v>2992.0599239079702</v>
+        <v>-61.661538773845393</v>
       </c>
       <c r="F52">
-        <v>0.017676125134859416</v>
+        <v>0.022389942806902145</v>
       </c>
       <c r="G52">
-        <v>-0.035817239044256224</v>
+        <v>0.0053259171664264649</v>
       </c>
       <c r="H52">
-        <v>90.497171429155799</v>
+        <v>73.840029972351616</v>
       </c>
       <c r="I52">
-        <v>91</v>
+        <v>74</v>
       </c>
     </row>
     <row r="53">
       <c r="A53">
-        <v>0.052000000000000005</v>
+        <v>0.052000000000000039</v>
       </c>
       <c r="B53">
-        <v>1</v>
+        <v>-22</v>
       </c>
       <c r="C53">
-        <v>1.6747690600442628</v>
+        <v>1.2829007901452085</v>
       </c>
       <c r="D53">
-        <v>51.278484056977362</v>
+        <v>-2.987620973078418</v>
       </c>
       <c r="E53">
-        <v>3843.6555254992581</v>
+        <v>-62.372355430101734</v>
       </c>
       <c r="F53">
-        <v>0.015940045169189621</v>
+        <v>0.022371530856029241</v>
       </c>
       <c r="G53">
-        <v>-0.039660953220550819</v>
+        <v>0.0057272536884406975</v>
       </c>
       <c r="H53">
-        <v>93.129270703091152</v>
+        <v>73.674192045498913</v>
       </c>
       <c r="I53">
-        <v>94</v>
+        <v>74</v>
       </c>
     </row>
     <row r="54">
       <c r="A54">
-        <v>0.052999999999999999</v>
+        <v>0.05300000000000004</v>
       </c>
       <c r="B54">
-        <v>1</v>
+        <v>-22</v>
       </c>
       <c r="C54">
-        <v>1.7285975968797869</v>
+        <v>1.2798816164080371</v>
       </c>
       <c r="D54">
-        <v>56.378589614070911</v>
+        <v>-3.0507265012644389</v>
       </c>
       <c r="E54">
-        <v>5100.1055570935496</v>
+        <v>-63.105528186020933</v>
       </c>
       <c r="F54">
-        <v>0.013915401295793958</v>
+        <v>0.022353127750130847</v>
       </c>
       <c r="G54">
-        <v>-0.042131511352969477</v>
+        <v>0.0061364998857708544</v>
       </c>
       <c r="H54">
-        <v>95.957198799628216</v>
+        <v>73.504800809318965</v>
       </c>
       <c r="I54">
-        <v>96</v>
+        <v>74</v>
       </c>
     </row>
     <row r="55">
       <c r="A55">
-        <v>0.053999999999999999</v>
+        <v>0.054000000000000041</v>
       </c>
       <c r="B55">
-        <v>1</v>
+        <v>-22</v>
       </c>
       <c r="C55">
-        <v>1.7885128746515999</v>
+        <v>1.2767989590178017</v>
       </c>
       <c r="D55">
-        <v>63.451965929555016</v>
+        <v>-3.114588279206242</v>
       </c>
       <c r="E55">
-        <v>7073.3763154841017</v>
+        <v>-63.861777941803091</v>
       </c>
       <c r="F55">
-        <v>0.011621352231592136</v>
+        <v>0.022334754798368724</v>
       </c>
       <c r="G55">
-        <v>-0.042743412419839727</v>
+        <v>0.006553711590075657</v>
       </c>
       <c r="H55">
-        <v>99.041346777668238</v>
+        <v>73.331814896562292</v>
       </c>
       <c r="I55">
-        <v>100</v>
+        <v>74</v>
       </c>
     </row>
     <row r="56">
       <c r="A56">
-        <v>0.055</v>
+        <v>0.055000000000000042</v>
       </c>
       <c r="B56">
-        <v>1</v>
+        <v>-22</v>
       </c>
       <c r="C56">
-        <v>1.8571905336155485</v>
+        <v>1.2736520498085906</v>
       </c>
       <c r="D56">
-        <v>73.90335199834233</v>
+        <v>-3.1792301392160915</v>
       </c>
       <c r="E56">
-        <v>10451.386068787318</v>
+        <v>-64.641860009849466</v>
       </c>
       <c r="F56">
-        <v>0.0090999524851409774</v>
+        <v>0.022316434129664855</v>
       </c>
       <c r="G56">
-        <v>-0.040945252295252969</v>
+        <v>0.0069789461344550077</v>
       </c>
       <c r="H56">
-        <v>102.4742393223471</v>
+        <v>73.155191638416994</v>
       </c>
       <c r="I56">
-        <v>103</v>
+        <v>74</v>
       </c>
     </row>
     <row r="57">
       <c r="A57">
-        <v>0.056000000000000001</v>
+        <v>0.056000000000000043</v>
       </c>
       <c r="B57">
-        <v>1</v>
+        <v>-22</v>
       </c>
       <c r="C57">
-        <v>1.9396038387391634</v>
+        <v>1.2704400820618635</v>
       </c>
       <c r="D57">
-        <v>90.923258248887322</v>
+        <v>-3.2447053542379631</v>
       </c>
       <c r="E57">
-        <v>17019.906250544991</v>
+        <v>-65.475215021871691</v>
       </c>
       <c r="F57">
-        <v>0.0064369247156469585</v>
+        <v>0.022296787460232587</v>
       </c>
       <c r="G57">
-        <v>-0.036184561604525732</v>
+        <v>0.0074107006242460092</v>
       </c>
       <c r="H57">
-        <v>106.40917932782017</v>
+        <v>72.974887022218354</v>
       </c>
       <c r="I57">
-        <v>107</v>
+        <v>73</v>
       </c>
     </row>
     <row r="58">
       <c r="A58">
-        <v>0.057000000000000002</v>
+        <v>0.057000000000000044</v>
       </c>
       <c r="B58">
-        <v>1</v>
+        <v>-22</v>
       </c>
       <c r="C58">
-        <v>2.0468488313243047</v>
+        <v>1.2671621187323656</v>
       </c>
       <c r="D58">
-        <v>123.56672692139546</v>
+        <v>-3.3112213047579284</v>
       </c>
       <c r="E58">
-        <v>32643.468672508126</v>
+        <v>-66.515950519965074</v>
       </c>
       <c r="F58">
-        <v>0.0037837039173123825</v>
+        <v>0.02226838049524979</v>
       </c>
       <c r="G58">
-        <v>-0.027864112485610819</v>
+        <v>0.0078407245025820457</v>
       </c>
       <c r="H58">
-        <v>111.13111388712719</v>
+        <v>72.790854826398743</v>
       </c>
       <c r="I58">
-        <v>112</v>
+        <v>73</v>
       </c>
     </row>
     <row r="59">
       <c r="A59">
-        <v>0</v>
+        <v>0.058000000000000045</v>
       </c>
       <c r="B59">
-        <v>0</v>
+        <v>-22</v>
       </c>
       <c r="C59">
-        <v>0</v>
+        <v>1.2638171030731868</v>
       </c>
       <c r="D59">
-        <v>0</v>
+        <v>-3.3788100135997983</v>
       </c>
       <c r="E59">
-        <v>0</v>
+        <v>-67.588708841869789</v>
       </c>
       <c r="F59">
-        <v>0</v>
+        <v>0.022239900616172634</v>
       </c>
       <c r="G59">
-        <v>0</v>
+        <v>0.0082787511828697237</v>
       </c>
       <c r="H59">
-        <v>0</v>
+        <v>72.603041362219869</v>
       </c>
       <c r="I59">
-        <v>0</v>
+        <v>73</v>
       </c>
     </row>
     <row r="60">
       <c r="A60">
-        <v>0</v>
+        <v>0.059000000000000045</v>
       </c>
       <c r="B60">
-        <v>0</v>
+        <v>-22</v>
       </c>
       <c r="C60">
-        <v>0</v>
+        <v>1.2604039457323644</v>
       </c>
       <c r="D60">
-        <v>0</v>
+        <v>-3.447504668044937</v>
       </c>
       <c r="E60">
-        <v>0</v>
+        <v>-68.694654445138809</v>
       </c>
       <c r="F60">
-        <v>0</v>
+        <v>0.02221137005766359</v>
       </c>
       <c r="G60">
-        <v>0</v>
+        <v>0.0087248706512400992</v>
       </c>
       <c r="H60">
-        <v>0</v>
+        <v>72.411386082543743</v>
       </c>
       <c r="I60">
-        <v>0</v>
+        <v>73</v>
       </c>
     </row>
     <row r="61">
       <c r="A61">
-        <v>0</v>
+        <v>0.060000000000000046</v>
       </c>
       <c r="B61">
-        <v>0</v>
+        <v>-22</v>
       </c>
       <c r="C61">
-        <v>0</v>
+        <v>1.2569215235582243</v>
       </c>
       <c r="D61">
-        <v>0</v>
+        <v>-3.5173396802354371</v>
       </c>
       <c r="E61">
-        <v>0</v>
+        <v>-69.835012190500066</v>
       </c>
       <c r="F61">
-        <v>0</v>
+        <v>0.022182812104099656</v>
       </c>
       <c r="G61">
-        <v>0</v>
+        <v>0.0091791750772788026</v>
       </c>
       <c r="H61">
-        <v>0</v>
+        <v>72.215826572100525</v>
       </c>
       <c r="I61">
-        <v>0</v>
+        <v>73</v>
       </c>
     </row>
     <row r="62">
       <c r="A62">
-        <v>0</v>
+        <v>0.061000000000000047</v>
       </c>
       <c r="B62">
-        <v>0</v>
+        <v>-22</v>
       </c>
       <c r="C62">
-        <v>0</v>
+        <v>1.2533686783424942</v>
       </c>
       <c r="D62">
-        <v>0</v>
+        <v>-3.5883507512245911</v>
       </c>
       <c r="E62">
-        <v>0</v>
+        <v>-71.011070989154121</v>
       </c>
       <c r="F62">
-        <v>0</v>
+        <v>0.022154251141426561</v>
       </c>
       <c r="G62">
-        <v>0</v>
+        <v>0.0096417588721921868</v>
       </c>
       <c r="H62">
-        <v>0</v>
+        <v>72.01629847903952</v>
       </c>
       <c r="I62">
-        <v>0</v>
+        <v>73</v>
       </c>
     </row>
     <row r="63">
       <c r="A63">
-        <v>0</v>
+        <v>0.062000000000000048</v>
       </c>
       <c r="B63">
-        <v>0</v>
+        <v>-22</v>
       </c>
       <c r="C63">
-        <v>0</v>
+        <v>1.2497441100208797</v>
       </c>
       <c r="D63">
-        <v>0</v>
+        <v>-3.6607858920044127</v>
       </c>
       <c r="E63">
-        <v>0</v>
+        <v>-72.435140779821538</v>
       </c>
       <c r="F63">
-        <v>0</v>
+        <v>0.022115485896274805</v>
       </c>
       <c r="G63">
-        <v>0</v>
+        <v>0.010099639930583236</v>
       </c>
       <c r="H63">
-        <v>0</v>
+        <v>71.812735442914942</v>
       </c>
       <c r="I63">
-        <v>0</v>
+        <v>72</v>
       </c>
     </row>
     <row r="64">
       <c r="A64">
-        <v>0</v>
+        <v>0.063000000000000042</v>
       </c>
       <c r="B64">
-        <v>0</v>
+        <v>-22</v>
       </c>
       <c r="C64">
-        <v>0</v>
+        <v>1.2460463627570424</v>
       </c>
       <c r="D64">
-        <v>0</v>
+        <v>-3.7347086356701316</v>
       </c>
       <c r="E64">
-        <v>0</v>
+        <v>-73.922743665718855</v>
       </c>
       <c r="F64">
-        <v>0</v>
+        <v>0.022075671370891437</v>
       </c>
       <c r="G64">
-        <v>0</v>
+        <v>0.010564623676210975</v>
       </c>
       <c r="H64">
-        <v>0</v>
+        <v>71.60506297552962</v>
       </c>
       <c r="I64">
-        <v>0</v>
+        <v>72</v>
       </c>
     </row>
     <row r="65">
       <c r="A65">
-        <v>0</v>
+        <v>0.064000000000000043</v>
       </c>
       <c r="B65">
-        <v>0</v>
+        <v>-22</v>
       </c>
       <c r="C65">
-        <v>0</v>
+        <v>1.2422739253792836</v>
       </c>
       <c r="D65">
-        <v>0</v>
+        <v>-3.8101661198477772</v>
       </c>
       <c r="E65">
-        <v>0</v>
+        <v>-75.457484177645583</v>
       </c>
       <c r="F65">
-        <v>0</v>
+        <v>0.022035721228152769</v>
       </c>
       <c r="G65">
-        <v>0</v>
+        <v>0.011037977520658149</v>
       </c>
       <c r="H65">
-        <v>0</v>
+        <v>71.39319766360569</v>
       </c>
       <c r="I65">
-        <v>0</v>
+        <v>72</v>
       </c>
     </row>
     <row r="66">
       <c r="A66">
-        <v>0</v>
+        <v>0.065000000000000044</v>
       </c>
       <c r="B66">
-        <v>0</v>
+        <v>-22</v>
       </c>
       <c r="C66">
-        <v>0</v>
+        <v>1.238425238588861</v>
       </c>
       <c r="D66">
-        <v>0</v>
+        <v>-3.8872074609976037</v>
       </c>
       <c r="E66">
-        <v>0</v>
+        <v>-77.041341149826536</v>
       </c>
       <c r="F66">
-        <v>0</v>
+        <v>0.021995659630073664</v>
       </c>
       <c r="G66">
-        <v>0</v>
+        <v>0.011519833242499502</v>
       </c>
       <c r="H66">
-        <v>0</v>
+        <v>71.177052923382718</v>
       </c>
       <c r="I66">
-        <v>0</v>
+        <v>72</v>
       </c>
     </row>
     <row r="67">
       <c r="A67">
-        <v>0</v>
+        <v>0.066000000000000045</v>
       </c>
       <c r="B67">
-        <v>0</v>
+        <v>-22</v>
       </c>
       <c r="C67">
-        <v>0</v>
+        <v>1.2344986688668129</v>
       </c>
       <c r="D67">
-        <v>0</v>
+        <v>-3.9659319830981845</v>
       </c>
       <c r="E67">
-        <v>0</v>
+        <v>-78.72452210058087</v>
       </c>
       <c r="F67">
-        <v>0</v>
+        <v>0.021953193218177708</v>
       </c>
       <c r="G67">
-        <v>0</v>
+        <v>0.012006978178894751</v>
       </c>
       <c r="H67">
-        <v>0</v>
+        <v>70.956539413623759</v>
       </c>
       <c r="I67">
-        <v>0</v>
+        <v>71</v>
       </c>
     </row>
     <row r="68">
       <c r="A68">
-        <v>0</v>
+        <v>0.067000000000000046</v>
       </c>
       <c r="B68">
-        <v>0</v>
+        <v>-22</v>
       </c>
       <c r="C68">
-        <v>0</v>
+        <v>1.2304924050374035</v>
       </c>
       <c r="D68">
-        <v>0</v>
+        <v>-4.0465956757202752</v>
       </c>
       <c r="E68">
-        <v>0</v>
+        <v>-80.663692622091091</v>
       </c>
       <c r="F68">
-        <v>0</v>
+        <v>0.021900994301742804</v>
       </c>
       <c r="G68">
-        <v>0</v>
+        <v>0.012488961019410589</v>
       </c>
       <c r="H68">
-        <v>0</v>
+        <v>70.731563540586535</v>
       </c>
       <c r="I68">
-        <v>0</v>
+        <v>71</v>
       </c>
     </row>
     <row r="69">
       <c r="A69">
-        <v>0</v>
+        <v>0.068000000000000047</v>
       </c>
       <c r="B69">
-        <v>0</v>
+        <v>-22</v>
       </c>
       <c r="C69">
-        <v>0</v>
+        <v>1.2264044758725396</v>
       </c>
       <c r="D69">
-        <v>0</v>
+        <v>-4.1292626540073556</v>
       </c>
       <c r="E69">
-        <v>0</v>
+        <v>-82.66697828708071</v>
       </c>
       <c r="F69">
-        <v>0</v>
+        <v>0.021848540548484584</v>
       </c>
       <c r="G69">
-        <v>0</v>
+        <v>0.012979602890916679</v>
       </c>
       <c r="H69">
-        <v>0</v>
+        <v>70.502021531545466</v>
       </c>
       <c r="I69">
-        <v>0</v>
+        <v>71</v>
       </c>
     </row>
     <row r="70">
       <c r="A70">
-        <v>0</v>
+        <v>0.069000000000000047</v>
       </c>
       <c r="B70">
-        <v>0</v>
+        <v>-22</v>
       </c>
       <c r="C70">
-        <v>0</v>
+        <v>1.2222328445247954</v>
       </c>
       <c r="D70">
-        <v>0</v>
+        <v>-4.2140000414812002</v>
       </c>
       <c r="E70">
-        <v>0</v>
+        <v>-84.737387473844223</v>
       </c>
       <c r="F70">
-        <v>0</v>
+        <v>0.021795855255591266</v>
       </c>
       <c r="G70">
-        <v>0</v>
+        <v>0.013479076646823499</v>
       </c>
       <c r="H70">
-        <v>0</v>
+        <v>70.267800443450326</v>
       </c>
       <c r="I70">
-        <v>0</v>
+        <v>71</v>
       </c>
     </row>
     <row r="71">
       <c r="A71">
-        <v>0</v>
+        <v>0.070000000000000048</v>
       </c>
       <c r="B71">
-        <v>0</v>
+        <v>-22</v>
       </c>
       <c r="C71">
-        <v>0</v>
+        <v>1.2179754054261926</v>
       </c>
       <c r="D71">
-        <v>0</v>
+        <v>-4.3008781557242184</v>
       </c>
       <c r="E71">
-        <v>0</v>
+        <v>-86.878114243018359</v>
       </c>
       <c r="F71">
-        <v>0</v>
+        <v>0.021742963524241002</v>
       </c>
       <c r="G71">
-        <v>0</v>
+        <v>0.01398755945868684</v>
       </c>
       <c r="H71">
-        <v>0</v>
+        <v>70.02878357354011</v>
       </c>
       <c r="I71">
-        <v>0</v>
+        <v>71</v>
       </c>
     </row>
     <row r="72">
       <c r="A72">
-        <v>0</v>
+        <v>0.071000000000000049</v>
       </c>
       <c r="B72">
-        <v>0</v>
+        <v>-22</v>
       </c>
       <c r="C72">
-        <v>0</v>
+        <v>1.2136298630441038</v>
       </c>
       <c r="D72">
-        <v>0</v>
+        <v>-4.3902066084536298</v>
       </c>
       <c r="E72">
-        <v>0</v>
+        <v>-89.328452729411154</v>
       </c>
       <c r="F72">
-        <v>0</v>
+        <v>0.021678720816283199</v>
       </c>
       <c r="G72">
-        <v>0</v>
+        <v>0.014487285178127397</v>
       </c>
       <c r="H72">
-        <v>0</v>
+        <v>69.78485028165619</v>
       </c>
       <c r="I72">
-        <v>0</v>
+        <v>70</v>
       </c>
     </row>
     <row r="73">
       <c r="A73">
-        <v>0</v>
+        <v>0.07200000000000005</v>
       </c>
       <c r="B73">
-        <v>0</v>
+        <v>-22</v>
       </c>
       <c r="C73">
-        <v>0</v>
+        <v>1.2091937077589221</v>
       </c>
       <c r="D73">
-        <v>0</v>
+        <v>-4.4821039619099725</v>
       </c>
       <c r="E73">
-        <v>0</v>
+        <v>-91.897353456343026</v>
       </c>
       <c r="F73">
-        <v>0</v>
+        <v>0.021612590522091628</v>
       </c>
       <c r="G73">
-        <v>0</v>
+        <v>0.014993677325489944</v>
       </c>
       <c r="H73">
-        <v>0</v>
+        <v>69.535869043467258</v>
       </c>
       <c r="I73">
-        <v>0</v>
+        <v>70</v>
       </c>
     </row>
     <row r="74">
       <c r="A74">
-        <v>0</v>
+        <v>0.073000000000000051</v>
       </c>
       <c r="B74">
-        <v>0</v>
+        <v>-22</v>
       </c>
       <c r="C74">
-        <v>0</v>
+        <v>1.2046643247510818</v>
       </c>
       <c r="D74">
-        <v>0</v>
+        <v>-4.5766620537703577</v>
       </c>
       <c r="E74">
-        <v>0</v>
+        <v>-94.558091860385133</v>
       </c>
       <c r="F74">
-        <v>0</v>
+        <v>0.021546090673505561</v>
       </c>
       <c r="G74">
-        <v>0</v>
+        <v>0.015509359469223147</v>
       </c>
       <c r="H74">
-        <v>0</v>
+        <v>69.281696068361697</v>
       </c>
       <c r="I74">
-        <v>0</v>
+        <v>70</v>
       </c>
     </row>
     <row r="75">
       <c r="A75">
-        <v>0</v>
+        <v>0.074000000000000052</v>
       </c>
       <c r="B75">
-        <v>0</v>
+        <v>-22</v>
       </c>
       <c r="C75">
-        <v>0</v>
+        <v>1.200039004932931</v>
       </c>
       <c r="D75">
-        <v>0</v>
+        <v>-4.6739775825308403</v>
       </c>
       <c r="E75">
-        <v>0</v>
+        <v>-97.315528760482934</v>
       </c>
       <c r="F75">
-        <v>0</v>
+        <v>0.021479245478963259</v>
       </c>
       <c r="G75">
-        <v>0</v>
+        <v>0.016034555840553171</v>
       </c>
       <c r="H75">
-        <v>0</v>
+        <v>69.022181538214184</v>
       </c>
       <c r="I75">
-        <v>0</v>
+        <v>70</v>
       </c>
     </row>
     <row r="76">
       <c r="A76">
-        <v>0</v>
+        <v>0.075000000000000053</v>
       </c>
       <c r="B76">
-        <v>0</v>
+        <v>-22</v>
       </c>
       <c r="C76">
-        <v>0</v>
+        <v>1.1953148084269825</v>
       </c>
       <c r="D76">
-        <v>0</v>
+        <v>-4.7744154293661598</v>
       </c>
       <c r="E76">
-        <v>0</v>
+        <v>-100.43784683531958</v>
       </c>
       <c r="F76">
-        <v>0</v>
+        <v>0.021399840235385222</v>
       </c>
       <c r="G76">
-        <v>0</v>
+        <v>0.016547796277121562</v>
       </c>
       <c r="H76">
-        <v>0</v>
+        <v>68.75717023373592</v>
       </c>
       <c r="I76">
-        <v>0</v>
+        <v>69</v>
       </c>
     </row>
     <row r="77">
       <c r="A77">
-        <v>0</v>
+        <v>0.076000000000000054</v>
       </c>
       <c r="B77">
-        <v>0</v>
+        <v>-22</v>
       </c>
       <c r="C77">
-        <v>0</v>
+        <v>1.1904885412459376</v>
       </c>
       <c r="D77">
-        <v>0</v>
+        <v>-4.8781189327235124</v>
       </c>
       <c r="E77">
-        <v>0</v>
+        <v>-103.70350335735232</v>
       </c>
       <c r="F77">
-        <v>0</v>
+        <v>0.021318762795954245</v>
       </c>
       <c r="G77">
-        <v>0</v>
+        <v>0.017068676972989749</v>
       </c>
       <c r="H77">
-        <v>0</v>
+        <v>68.486493712354616</v>
       </c>
       <c r="I77">
-        <v>0</v>
+        <v>69</v>
       </c>
     </row>
     <row r="78">
       <c r="A78">
-        <v>0</v>
+        <v>0.077000000000000055</v>
       </c>
       <c r="B78">
-        <v>0</v>
+        <v>-22</v>
       </c>
       <c r="C78">
-        <v>0</v>
+        <v>1.1855568744844678</v>
       </c>
       <c r="D78">
-        <v>0</v>
+        <v>-4.9852145902157803</v>
       </c>
       <c r="E78">
-        <v>0</v>
+        <v>-107.09565749226783</v>
       </c>
       <c r="F78">
-        <v>0</v>
+        <v>0.02123715286382466</v>
       </c>
       <c r="G78">
-        <v>0</v>
+        <v>0.017599454032660271</v>
       </c>
       <c r="H78">
-        <v>0</v>
+        <v>68.209968972078244</v>
       </c>
       <c r="I78">
-        <v>0</v>
+        <v>69</v>
       </c>
     </row>
     <row r="79">
       <c r="A79">
-        <v>0</v>
+        <v>0.078000000000000055</v>
       </c>
       <c r="B79">
-        <v>0</v>
+        <v>-22</v>
       </c>
       <c r="C79">
-        <v>0</v>
+        <v>1.1805163104542304</v>
       </c>
       <c r="D79">
-        <v>0</v>
+        <v>-5.0959134702587265</v>
       </c>
       <c r="E79">
-        <v>0</v>
+        <v>-110.6988800429466</v>
       </c>
       <c r="F79">
-        <v>0</v>
+        <v>0.021151488952544248</v>
       </c>
       <c r="G79">
-        <v>0</v>
+        <v>0.01813350883308153</v>
       </c>
       <c r="H79">
-        <v>0</v>
+        <v>67.927405280681086</v>
       </c>
       <c r="I79">
-        <v>0</v>
+        <v>68</v>
       </c>
     </row>
     <row r="80">
       <c r="A80">
-        <v>0</v>
+        <v>0.079000000000000056</v>
       </c>
       <c r="B80">
-        <v>0</v>
+        <v>-22</v>
       </c>
       <c r="C80">
-        <v>0</v>
+        <v>1.1753630579564895</v>
       </c>
       <c r="D80">
-        <v>0</v>
+        <v>-5.210591525223438</v>
       </c>
       <c r="E80">
-        <v>0</v>
+        <v>-114.67805496471131</v>
       </c>
       <c r="F80">
-        <v>0</v>
+        <v>0.021054799732222303</v>
       </c>
       <c r="G80">
-        <v>0</v>
+        <v>0.018657594627214145</v>
       </c>
       <c r="H80">
-        <v>0</v>
+        <v>67.638602235383019</v>
       </c>
       <c r="I80">
-        <v>0</v>
+        <v>68</v>
       </c>
     </row>
     <row r="81">
       <c r="A81">
-        <v>0</v>
+        <v>0.080000000000000057</v>
       </c>
       <c r="B81">
-        <v>0</v>
+        <v>-22</v>
       </c>
       <c r="C81">
-        <v>0</v>
+        <v>1.1700930549964044</v>
       </c>
       <c r="D81">
-        <v>0</v>
+        <v>-5.329414394946836</v>
       </c>
       <c r="E81">
-        <v>0</v>
+        <v>-118.8228697233978</v>
       </c>
       <c r="F81">
-        <v>0</v>
+        <v>0.020957363954630687</v>
       </c>
       <c r="G81">
-        <v>0</v>
+        <v>0.01919202437824799</v>
       </c>
       <c r="H81">
-        <v>0</v>
+        <v>67.343342616497225</v>
       </c>
       <c r="I81">
-        <v>0</v>
+        <v>68</v>
       </c>
     </row>
     <row r="82">
       <c r="A82">
-        <v>0</v>
+        <v>0.081000000000000058</v>
       </c>
       <c r="B82">
-        <v>0</v>
+        <v>-22</v>
       </c>
       <c r="C82">
-        <v>0</v>
+        <v>1.164702068642713</v>
       </c>
       <c r="D82">
-        <v>0</v>
+        <v>-5.45255831243594</v>
       </c>
       <c r="E82">
-        <v>0</v>
+        <v>-123.14391748910421</v>
       </c>
       <c r="F82">
-        <v>0</v>
+        <v>0.020859200391110402</v>
       </c>
       <c r="G82">
-        <v>0</v>
+        <v>0.019737126633243764</v>
       </c>
       <c r="H82">
-        <v>0</v>
+        <v>67.041393688862897</v>
       </c>
       <c r="I82">
-        <v>0</v>
+        <v>68</v>
       </c>
     </row>
     <row r="83">
       <c r="A83">
-        <v>0</v>
+        <v>0.082000000000000059</v>
       </c>
       <c r="B83">
-        <v>0</v>
+        <v>-22</v>
       </c>
       <c r="C83">
-        <v>0</v>
+        <v>1.1591855427470745</v>
       </c>
       <c r="D83">
-        <v>0</v>
+        <v>-5.5804934788409666</v>
       </c>
       <c r="E83">
-        <v>0</v>
+        <v>-127.93516640502627</v>
       </c>
       <c r="F83">
-        <v>0</v>
+        <v>0.020747732603379976</v>
       </c>
       <c r="G83">
-        <v>0</v>
+        <v>0.02026655387210629</v>
       </c>
       <c r="H83">
-        <v>0</v>
+        <v>66.732512923383752</v>
       </c>
       <c r="I83">
-        <v>0</v>
+        <v>67</v>
       </c>
     </row>
     <row r="84">
       <c r="A84">
-        <v>0</v>
+        <v>0.08300000000000006</v>
       </c>
       <c r="B84">
-        <v>0</v>
+        <v>-22</v>
       </c>
       <c r="C84">
-        <v>0</v>
+        <v>1.1535385556628337</v>
       </c>
       <c r="D84">
-        <v>0</v>
+        <v>-5.7134806896407433</v>
       </c>
       <c r="E84">
-        <v>0</v>
+        <v>-132.98721079977682</v>
       </c>
       <c r="F84">
-        <v>0</v>
+        <v>0.020633318824368776</v>
       </c>
       <c r="G84">
-        <v>0</v>
+        <v>0.020802701713300155</v>
       </c>
       <c r="H84">
-        <v>0</v>
+        <v>66.416439271989049</v>
       </c>
       <c r="I84">
-        <v>0</v>
+        <v>67</v>
       </c>
     </row>
     <row r="85">
       <c r="A85">
-        <v>0</v>
+        <v>0.084000000000000061</v>
       </c>
       <c r="B85">
-        <v>0</v>
+        <v>-22</v>
       </c>
       <c r="C85">
-        <v>0</v>
+        <v>1.1477559388612917</v>
       </c>
       <c r="D85">
-        <v>0</v>
+        <v>-5.8517529134431578</v>
       </c>
       <c r="E85">
-        <v>0</v>
+        <v>-138.27222380241486</v>
       </c>
       <c r="F85">
-        <v>0</v>
+        <v>0.020517924284179055</v>
       </c>
       <c r="G85">
-        <v>0</v>
+        <v>0.021350095114810085</v>
       </c>
       <c r="H85">
-        <v>0</v>
+        <v>66.092890745097165</v>
       </c>
       <c r="I85">
-        <v>0</v>
+        <v>67</v>
       </c>
     </row>
     <row r="86">
       <c r="A86">
-        <v>0</v>
+        <v>0.085000000000000062</v>
       </c>
       <c r="B86">
-        <v>0</v>
+        <v>-22</v>
       </c>
       <c r="C86">
-        <v>0</v>
+        <v>1.1418321585298759</v>
       </c>
       <c r="D86">
-        <v>0</v>
+        <v>-5.9958077493883914</v>
       </c>
       <c r="E86">
-        <v>0</v>
+        <v>-144.05483594523338</v>
       </c>
       <c r="F86">
-        <v>0</v>
+        <v>0.020390760486902026</v>
       </c>
       <c r="G86">
-        <v>0</v>
+        <v>0.021884264507563249</v>
       </c>
       <c r="H86">
-        <v>0</v>
+        <v>65.761571207827359</v>
       </c>
       <c r="I86">
-        <v>0</v>
+        <v>66</v>
       </c>
     </row>
     <row r="87">
       <c r="A87">
-        <v>0</v>
+        <v>0.086000000000000063</v>
       </c>
       <c r="B87">
-        <v>0</v>
+        <v>-22</v>
       </c>
       <c r="C87">
-        <v>0</v>
+        <v>1.1357612404414748</v>
       </c>
       <c r="D87">
-        <v>0</v>
+        <v>-6.1460284274137589</v>
       </c>
       <c r="E87">
-        <v>0</v>
+        <v>-150.22067802536708</v>
       </c>
       <c r="F87">
-        <v>0</v>
+        <v>0.020258099116217166</v>
       </c>
       <c r="G87">
-        <v>0</v>
+        <v>0.022420169930769257</v>
       </c>
       <c r="H87">
-        <v>0</v>
+        <v>65.422163596074626</v>
       </c>
       <c r="I87">
-        <v>0</v>
+        <v>66</v>
       </c>
     </row>
     <row r="88">
       <c r="A88">
-        <v>0</v>
+        <v>0.087000000000000063</v>
       </c>
       <c r="B88">
-        <v>0</v>
+        <v>-22</v>
       </c>
       <c r="C88">
-        <v>0</v>
+        <v>1.1295368635831426</v>
       </c>
       <c r="D88">
-        <v>0</v>
+        <v>-6.3027252892503354</v>
       </c>
       <c r="E88">
-        <v>0</v>
+        <v>-156.69686183657669</v>
       </c>
       <c r="F88">
-        <v>0</v>
+        <v>0.020124162032747375</v>
       </c>
       <c r="G88">
-        <v>0</v>
+        <v>0.022967971880762217</v>
       </c>
       <c r="H88">
-        <v>0</v>
+        <v>65.074325611839612</v>
       </c>
       <c r="I88">
-        <v>0</v>
+        <v>66</v>
       </c>
     </row>
     <row r="89">
       <c r="A89">
-        <v>0</v>
+        <v>0.088000000000000064</v>
       </c>
       <c r="B89">
-        <v>0</v>
+        <v>-22</v>
       </c>
       <c r="C89">
-        <v>0</v>
+        <v>1.1231522395419278</v>
       </c>
       <c r="D89">
-        <v>0</v>
+        <v>-6.4665227931794824</v>
       </c>
       <c r="E89">
-        <v>0</v>
+        <v>-163.79750392914701</v>
       </c>
       <c r="F89">
-        <v>0</v>
+        <v>0.019976692003760073</v>
       </c>
       <c r="G89">
-        <v>0</v>
+        <v>0.023497562916270847</v>
       </c>
       <c r="H89">
-        <v>0</v>
+        <v>64.717695087758287</v>
       </c>
       <c r="I89">
-        <v>0</v>
+        <v>65</v>
       </c>
     </row>
     <row r="90">
       <c r="A90">
-        <v>0</v>
+        <v>0.089000000000000065</v>
       </c>
       <c r="B90">
-        <v>0</v>
+        <v>-22</v>
       </c>
       <c r="C90">
-        <v>0</v>
+        <v>1.1166000373793294</v>
       </c>
       <c r="D90">
-        <v>0</v>
+        <v>-6.637881532017035</v>
       </c>
       <c r="E90">
-        <v>0</v>
+        <v>-171.35873883755249</v>
       </c>
       <c r="F90">
-        <v>0</v>
+        <v>0.019824366795506511</v>
       </c>
       <c r="G90">
-        <v>0</v>
+        <v>0.024031196140100353</v>
       </c>
       <c r="H90">
-        <v>0</v>
+        <v>64.351883076418915</v>
       </c>
       <c r="I90">
-        <v>0</v>
+        <v>65</v>
       </c>
     </row>
     <row r="91">
       <c r="A91">
-        <v>0</v>
+        <v>0.090000000000000066</v>
       </c>
       <c r="B91">
-        <v>0</v>
+        <v>-22</v>
       </c>
       <c r="C91">
-        <v>0</v>
+        <v>1.1098724751532207</v>
       </c>
       <c r="D91">
-        <v>0</v>
+        <v>-6.8172429202006466</v>
       </c>
       <c r="E91">
-        <v>0</v>
+        <v>-179.36138818361184</v>
       </c>
       <c r="F91">
-        <v>0</v>
+        <v>0.019669442595677267</v>
       </c>
       <c r="G91">
-        <v>0</v>
+        <v>0.024574818841805374</v>
       </c>
       <c r="H91">
-        <v>0</v>
+        <v>63.976469545985537</v>
       </c>
       <c r="I91">
-        <v>0</v>
+        <v>64</v>
       </c>
     </row>
     <row r="92">
       <c r="A92">
-        <v>0</v>
+        <v>0.091000000000000067</v>
       </c>
       <c r="B92">
-        <v>0</v>
+        <v>-22</v>
       </c>
       <c r="C92">
-        <v>0</v>
+        <v>1.1029611387689962</v>
       </c>
       <c r="D92">
-        <v>0</v>
+        <v>-7.0054298482483013</v>
       </c>
       <c r="E92">
-        <v>0</v>
+        <v>-188.18692804765445</v>
       </c>
       <c r="F92">
-        <v>0</v>
+        <v>0.019497873877100998</v>
       </c>
       <c r="G92">
-        <v>0</v>
+        <v>0.025091178003015899</v>
       </c>
       <c r="H92">
-        <v>0</v>
+        <v>63.591008624017874</v>
       </c>
       <c r="I92">
-        <v>0</v>
+        <v>64</v>
       </c>
     </row>
     <row r="93">
       <c r="A93">
-        <v>0</v>
+        <v>0.092000000000000068</v>
       </c>
       <c r="B93">
-        <v>0</v>
+        <v>-22</v>
       </c>
       <c r="C93">
-        <v>0</v>
+        <v>1.0958569409505914</v>
       </c>
       <c r="D93">
-        <v>0</v>
+        <v>-7.2029657885612561</v>
       </c>
       <c r="E93">
-        <v>0</v>
+        <v>-197.53594031295455</v>
       </c>
       <c r="F93">
-        <v>0</v>
+        <v>0.019324286238939899</v>
       </c>
       <c r="G93">
-        <v>0</v>
+        <v>0.025620382953409418</v>
       </c>
       <c r="H93">
-        <v>0</v>
+        <v>63.195018218406602</v>
       </c>
       <c r="I93">
-        <v>0</v>
+        <v>64</v>
       </c>
     </row>
     <row r="94">
       <c r="A94">
-        <v>0</v>
+        <v>0.093000000000000069</v>
       </c>
       <c r="B94">
-        <v>0</v>
+        <v>-22</v>
       </c>
       <c r="C94">
-        <v>0</v>
+        <v>1.0885501423170798</v>
       </c>
       <c r="D94">
-        <v>0</v>
+        <v>-7.4106314784619105</v>
       </c>
       <c r="E94">
-        <v>0</v>
+        <v>-207.66568990065457</v>
       </c>
       <c r="F94">
-        <v>0</v>
+        <v>0.019140283891867033</v>
       </c>
       <c r="G94">
-        <v>0</v>
+        <v>0.026138640542414986</v>
       </c>
       <c r="H94">
-        <v>0</v>
+        <v>62.787977666585959</v>
       </c>
       <c r="I94">
-        <v>0</v>
+        <v>63</v>
       </c>
     </row>
     <row r="95">
       <c r="A95">
-        <v>0</v>
+        <v>0.09400000000000007</v>
       </c>
       <c r="B95">
-        <v>0</v>
+        <v>-22</v>
       </c>
       <c r="C95">
-        <v>0</v>
+        <v>1.0810301904641439</v>
       </c>
       <c r="D95">
-        <v>0</v>
+        <v>-7.6292722274097908</v>
       </c>
       <c r="E95">
-        <v>0</v>
+        <v>-218.64074894788038</v>
       </c>
       <c r="F95">
-        <v>0</v>
+        <v>0.018946095091484927</v>
       </c>
       <c r="G95">
-        <v>0</v>
+        <v>0.026647413369317342</v>
       </c>
       <c r="H95">
-        <v>0</v>
+        <v>62.369328943133794</v>
       </c>
       <c r="I95">
-        <v>0</v>
+        <v>63</v>
       </c>
     </row>
     <row r="96">
       <c r="A96">
-        <v>0</v>
+        <v>0.09500000000000007</v>
       </c>
       <c r="B96">
-        <v>0</v>
+        <v>-22</v>
       </c>
       <c r="C96">
-        <v>0</v>
+        <v>1.0732857196454983</v>
       </c>
       <c r="D96">
-        <v>0</v>
+        <v>-7.859669409881346</v>
       </c>
       <c r="E96">
-        <v>0</v>
+        <v>-230.39718247155534</v>
       </c>
       <c r="F96">
-        <v>0</v>
+        <v>0.018747110259665647</v>
       </c>
       <c r="G96">
-        <v>0</v>
+        <v>0.027162588180653334</v>
       </c>
       <c r="H96">
-        <v>0</v>
+        <v>61.938467439818979</v>
       </c>
       <c r="I96">
-        <v>0</v>
+        <v>62</v>
       </c>
     </row>
     <row r="97">
       <c r="A97">
-        <v>0</v>
+        <v>0.096000000000000071</v>
       </c>
       <c r="B97">
-        <v>0</v>
+        <v>-22</v>
       </c>
       <c r="C97">
-        <v>0</v>
+        <v>1.0653043859644242</v>
       </c>
       <c r="D97">
-        <v>0</v>
+        <v>-8.1029979522667972</v>
       </c>
       <c r="E97">
-        <v>0</v>
+        <v>-243.32854238545207</v>
       </c>
       <c r="F97">
-        <v>0</v>
+        <v>0.018531286955091947</v>
       </c>
       <c r="G97">
-        <v>0</v>
+        <v>0.027647264048885761</v>
       </c>
       <c r="H97">
-        <v>0</v>
+        <v>61.494741947348359</v>
       </c>
       <c r="I97">
-        <v>0</v>
+        <v>62</v>
       </c>
     </row>
     <row r="98">
       <c r="A98">
-        <v>0</v>
+        <v>0.097000000000000072</v>
       </c>
       <c r="B98">
-        <v>0</v>
+        <v>-22</v>
       </c>
       <c r="C98">
-        <v>0</v>
+        <v>1.0570727982837078</v>
       </c>
       <c r="D98">
-        <v>0</v>
+        <v>-8.3601774091658996</v>
       </c>
       <c r="E98">
-        <v>0</v>
+        <v>-257.17945689910215</v>
       </c>
       <c r="F98">
-        <v>0</v>
+        <v>0.018312462193606827</v>
       </c>
       <c r="G98">
-        <v>0</v>
+        <v>0.028145704929776583</v>
       </c>
       <c r="H98">
-        <v>0</v>
+        <v>61.0374452125372</v>
       </c>
       <c r="I98">
-        <v>0</v>
+        <v>62</v>
       </c>
     </row>
     <row r="99">
       <c r="A99">
-        <v>0</v>
+        <v>0.098000000000000073</v>
       </c>
       <c r="B99">
-        <v>0</v>
+        <v>-22</v>
       </c>
       <c r="C99">
-        <v>0</v>
+        <v>1.0485763885500003</v>
       </c>
       <c r="D99">
-        <v>0</v>
+        <v>-8.6326420582490169</v>
       </c>
       <c r="E99">
-        <v>0</v>
+        <v>-272.46464908311788</v>
       </c>
       <c r="F99">
-        <v>0</v>
+        <v>0.018075209543089145</v>
       </c>
       <c r="G99">
-        <v>0</v>
+        <v>0.028606754229831714</v>
       </c>
       <c r="H99">
-        <v>0</v>
+        <v>60.565809979740266</v>
       </c>
       <c r="I99">
-        <v>0</v>
+        <v>61</v>
       </c>
     </row>
     <row r="100">
       <c r="A100">
-        <v>0</v>
+        <v>0.099000000000000074</v>
       </c>
       <c r="B100">
-        <v>0</v>
+        <v>-22</v>
       </c>
       <c r="C100">
-        <v>0</v>
+        <v>1.0397992640939364</v>
       </c>
       <c r="D100">
-        <v>0</v>
+        <v>-8.9216068538790037</v>
       </c>
       <c r="E100">
-        <v>0</v>
+        <v>-288.96479562998752</v>
       </c>
       <c r="F100">
-        <v>0</v>
+        <v>0.017833047429967289</v>
       </c>
       <c r="G100">
-        <v>0</v>
+        <v>0.029077089669629207</v>
       </c>
       <c r="H100">
-        <v>0</v>
+        <v>60.079001560984956</v>
       </c>
       <c r="I100">
-        <v>0</v>
+        <v>61</v>
       </c>
     </row>
     <row r="101">
       <c r="A101">
-        <v>0</v>
+        <v>0.10000000000000007</v>
       </c>
       <c r="B101">
-        <v>0</v>
+        <v>-22</v>
       </c>
       <c r="C101">
-        <v>0</v>
+        <v>1.0307240690523085</v>
       </c>
       <c r="D101">
-        <v>0</v>
+        <v>-9.2287832293764982</v>
       </c>
       <c r="E101">
-        <v>0</v>
+        <v>-307.17637549749452</v>
       </c>
       <c r="F101">
-        <v>0</v>
+        <v>0.01757311331752557</v>
       </c>
       <c r="G101">
-        <v>0</v>
+        <v>0.029510674884787508</v>
       </c>
       <c r="H101">
-        <v>0</v>
+        <v>59.576109373391439</v>
       </c>
       <c r="I101">
-        <v>0</v>
+        <v>60</v>
       </c>
     </row>
     <row r="102">
       <c r="A102">
-        <v>0</v>
+        <v>0.10100000000000008</v>
       </c>
       <c r="B102">
-        <v>0</v>
+        <v>-22</v>
       </c>
       <c r="C102">
-        <v>0</v>
+        <v>1.0213317909386135</v>
       </c>
       <c r="D102">
-        <v>0</v>
+        <v>-9.5557729980137118</v>
       </c>
       <c r="E102">
-        <v>0</v>
+        <v>-326.98976863721441</v>
       </c>
       <c r="F102">
-        <v>0</v>
+        <v>0.017306309023238202</v>
       </c>
       <c r="G102">
-        <v>0</v>
+        <v>0.029948305907865552</v>
       </c>
       <c r="H102">
-        <v>0</v>
+        <v>59.056138999248105</v>
       </c>
       <c r="I102">
-        <v>0</v>
+        <v>60</v>
       </c>
     </row>
     <row r="103">
       <c r="A103">
-        <v>0</v>
+        <v>0.10200000000000008</v>
       </c>
       <c r="B103">
-        <v>0</v>
+        <v>-22</v>
       </c>
       <c r="C103">
-        <v>0</v>
+        <v>1.0116015374514666</v>
       </c>
       <c r="D103">
-        <v>0</v>
+        <v>-9.9047339762796263</v>
       </c>
       <c r="E103">
-        <v>0</v>
+        <v>-348.96097826591352</v>
       </c>
       <c r="F103">
-        <v>0</v>
+        <v>0.0170201427116034</v>
       </c>
       <c r="G103">
-        <v>0</v>
+        <v>0.030341616499838187</v>
       </c>
       <c r="H103">
-        <v>0</v>
+        <v>58.518001103320287</v>
       </c>
       <c r="I103">
-        <v>0</v>
+        <v>59</v>
       </c>
     </row>
     <row r="104">
       <c r="A104">
-        <v>0</v>
+        <v>0.10300000000000008</v>
       </c>
       <c r="B104">
-        <v>0</v>
+        <v>-22</v>
       </c>
       <c r="C104">
-        <v>0</v>
+        <v>1.0015102902163959</v>
       </c>
       <c r="D104">
-        <v>0</v>
+        <v>-10.277760493861685</v>
       </c>
       <c r="E104">
-        <v>0</v>
+        <v>-373.02651758205764</v>
       </c>
       <c r="F104">
-        <v>0</v>
+        <v>0.016726103337858723</v>
       </c>
       <c r="G104">
-        <v>0</v>
+        <v>0.030736519477971777</v>
       </c>
       <c r="H104">
-        <v>0</v>
+        <v>57.960498644914324</v>
       </c>
       <c r="I104">
-        <v>0</v>
+        <v>58</v>
       </c>
     </row>
     <row r="105">
       <c r="A105">
-        <v>0</v>
+        <v>0.10400000000000008</v>
       </c>
       <c r="B105">
-        <v>0</v>
+        <v>-22</v>
       </c>
       <c r="C105">
-        <v>0</v>
+        <v>0.99103260380561786</v>
       </c>
       <c r="D105">
-        <v>0</v>
+        <v>-10.677612327694604</v>
       </c>
       <c r="E105">
-        <v>0</v>
+        <v>-399.85183383291854</v>
       </c>
       <c r="F105">
-        <v>0</v>
+        <v>0.016411319826856018</v>
       </c>
       <c r="G105">
-        <v>0</v>
+        <v>0.031079756557365265</v>
       </c>
       <c r="H105">
-        <v>0</v>
+        <v>57.382312768321704</v>
       </c>
       <c r="I105">
-        <v>0</v>
+        <v>58</v>
       </c>
     </row>
     <row r="106">
       <c r="A106">
-        <v>0</v>
+        <v>0.10500000000000008</v>
       </c>
       <c r="B106">
-        <v>0</v>
+        <v>-22</v>
       </c>
       <c r="C106">
-        <v>0</v>
+        <v>0.98014022151052804</v>
       </c>
       <c r="D106">
-        <v>0</v>
+        <v>-11.107152262485048</v>
       </c>
       <c r="E106">
-        <v>0</v>
+        <v>-429.53993479044436</v>
       </c>
       <c r="F106">
-        <v>0</v>
+        <v>0.016084856872622885</v>
       </c>
       <c r="G106">
-        <v>0</v>
+        <v>0.031409075134140575</v>
       </c>
       <c r="H106">
-        <v>0</v>
+        <v>56.781985557922553</v>
       </c>
       <c r="I106">
-        <v>0</v>
+        <v>57</v>
       </c>
     </row>
     <row r="107">
       <c r="A107">
-        <v>0</v>
+        <v>0.10600000000000008</v>
       </c>
       <c r="B107">
-        <v>0</v>
+        <v>-22</v>
       </c>
       <c r="C107">
-        <v>0</v>
+        <v>0.96880173027272365</v>
       </c>
       <c r="D107">
-        <v>0</v>
+        <v>-11.569830213123646</v>
       </c>
       <c r="E107">
-        <v>0</v>
+        <v>-462.67795063859842</v>
       </c>
       <c r="F107">
-        <v>0</v>
+        <v>0.015741514018147378</v>
       </c>
       <c r="G107">
-        <v>0</v>
+        <v>0.03170259814266968</v>
       </c>
       <c r="H107">
-        <v>0</v>
+        <v>56.157898023570887</v>
       </c>
       <c r="I107">
-        <v>0</v>
+        <v>57</v>
       </c>
     </row>
     <row r="108">
       <c r="A108">
-        <v>0</v>
+        <v>0.10700000000000008</v>
       </c>
       <c r="B108">
-        <v>0</v>
+        <v>-22</v>
       </c>
       <c r="C108">
-        <v>0</v>
+        <v>0.95698197562033072</v>
       </c>
       <c r="D108">
-        <v>0</v>
+        <v>-12.069679091662158</v>
       </c>
       <c r="E108">
-        <v>0</v>
+        <v>-499.8488785385112</v>
       </c>
       <c r="F108">
-        <v>0</v>
+        <v>0.015379213875002837</v>
       </c>
       <c r="G108">
-        <v>0</v>
+        <v>0.031948375558132611</v>
       </c>
       <c r="H108">
-        <v>0</v>
+        <v>55.508250329598631</v>
       </c>
       <c r="I108">
-        <v>0</v>
+        <v>56</v>
       </c>
     </row>
     <row r="109">
       <c r="A109">
-        <v>0</v>
+        <v>0.10800000000000008</v>
       </c>
       <c r="B109">
-        <v>0</v>
+        <v>-22</v>
       </c>
       <c r="C109">
-        <v>0</v>
+        <v>0.94464150024973681</v>
       </c>
       <c r="D109">
-        <v>0</v>
+        <v>-12.611271649525822</v>
       </c>
       <c r="E109">
-        <v>0</v>
+        <v>-541.59255786366339</v>
       </c>
       <c r="F109">
-        <v>0</v>
+        <v>0.015001556561618778</v>
       </c>
       <c r="G109">
-        <v>0</v>
+        <v>0.032164434570945699</v>
       </c>
       <c r="H109">
-        <v>0</v>
+        <v>54.831028273136397</v>
       </c>
       <c r="I109">
-        <v>0</v>
+        <v>55</v>
       </c>
     </row>
     <row r="110">
       <c r="A110">
-        <v>0</v>
+        <v>0.10900000000000008</v>
       </c>
       <c r="B110">
-        <v>0</v>
+        <v>-22</v>
       </c>
       <c r="C110">
-        <v>0</v>
+        <v>0.93173581092685309</v>
       </c>
       <c r="D110">
-        <v>0</v>
+        <v>-13.20010699624161</v>
       </c>
       <c r="E110">
-        <v>0</v>
+        <v>-588.83534671578786</v>
       </c>
       <c r="F110">
-        <v>0</v>
+        <v>0.014603854028961211</v>
       </c>
       <c r="G110">
-        <v>0</v>
+        <v>0.032326772980881352</v>
       </c>
       <c r="H110">
-        <v>0</v>
+        <v>54.123971117216222</v>
       </c>
       <c r="I110">
-        <v>0</v>
+        <v>55</v>
       </c>
     </row>
     <row r="111">
       <c r="A111">
-        <v>0</v>
+        <v>0.11000000000000008</v>
       </c>
       <c r="B111">
-        <v>0</v>
+        <v>-22</v>
       </c>
       <c r="C111">
-        <v>0</v>
+        <v>0.91821441035123386</v>
       </c>
       <c r="D111">
-        <v>0</v>
+        <v>-13.842694154996785</v>
       </c>
       <c r="E111">
-        <v>0</v>
+        <v>-642.58715875517487</v>
       </c>
       <c r="F111">
-        <v>0</v>
+        <v>0.014184672155022471</v>
       </c>
       <c r="G111">
-        <v>0</v>
+        <v>0.032424774199913173</v>
       </c>
       <c r="H111">
-        <v>0</v>
+        <v>53.384529587307938</v>
       </c>
       <c r="I111">
-        <v>0</v>
+        <v>54</v>
       </c>
     </row>
     <row r="112">
       <c r="A112">
-        <v>0</v>
+        <v>0.11100000000000008</v>
       </c>
       <c r="B112">
-        <v>0</v>
+        <v>-22</v>
       </c>
       <c r="C112">
-        <v>0</v>
+        <v>0.90401970920666952</v>
       </c>
       <c r="D112">
-        <v>0</v>
+        <v>-14.546708134131768</v>
       </c>
       <c r="E112">
-        <v>0</v>
+        <v>-704.01397913498192</v>
       </c>
       <c r="F112">
-        <v>0</v>
+        <v>0.013745897122391049</v>
       </c>
       <c r="G112">
-        <v>0</v>
+        <v>0.032468301107474576</v>
       </c>
       <c r="H112">
-        <v>0</v>
+        <v>52.609810401219185</v>
       </c>
       <c r="I112">
-        <v>0</v>
+        <v>53</v>
       </c>
     </row>
     <row r="113">
       <c r="A113">
-        <v>0</v>
+        <v>0.11200000000000009</v>
       </c>
       <c r="B113">
-        <v>0</v>
+        <v>-22</v>
       </c>
       <c r="C113">
-        <v>0</v>
+        <v>0.88908564943809321</v>
       </c>
       <c r="D113">
-        <v>0</v>
+        <v>-15.321411403020978</v>
       </c>
       <c r="E113">
-        <v>0</v>
+        <v>-774.70326888920965</v>
       </c>
       <c r="F113">
-        <v>0</v>
+        <v>0.013285751073294511</v>
       </c>
       <c r="G113">
-        <v>0</v>
+        <v>0.032446363869276178</v>
       </c>
       <c r="H113">
-        <v>0</v>
+        <v>51.796513934186137</v>
       </c>
       <c r="I113">
-        <v>0</v>
+        <v>52</v>
       </c>
     </row>
     <row r="114">
       <c r="A114">
-        <v>0</v>
+        <v>0.11300000000000009</v>
       </c>
       <c r="B114">
-        <v>0</v>
+        <v>-22</v>
       </c>
       <c r="C114">
-        <v>0</v>
+        <v>0.87333591137808297</v>
       </c>
       <c r="D114">
-        <v>0</v>
+        <v>-16.178064716999341</v>
       </c>
       <c r="E114">
-        <v>0</v>
+        <v>-856.6533139783628</v>
       </c>
       <c r="F114">
-        <v>0</v>
+        <v>0.012802645489848842</v>
       </c>
       <c r="G114">
-        <v>0</v>
+        <v>0.03234743565700178</v>
       </c>
       <c r="H114">
-        <v>0</v>
+        <v>50.940855338450589</v>
       </c>
       <c r="I114">
-        <v>0</v>
+        <v>51</v>
       </c>
     </row>
     <row r="115">
       <c r="A115">
-        <v>0</v>
+        <v>0.11400000000000009</v>
       </c>
       <c r="B115">
-        <v>0</v>
+        <v>-22</v>
       </c>
       <c r="C115">
-        <v>0</v>
+        <v>0.85668163749982329</v>
       </c>
       <c r="D115">
-        <v>0</v>
+        <v>-17.130483039520083</v>
       </c>
       <c r="E115">
-        <v>0</v>
+        <v>-952.41832252074255</v>
       </c>
       <c r="F115">
-        <v>0</v>
+        <v>0.012294687236089546</v>
       </c>
       <c r="G115">
-        <v>0</v>
+        <v>0.032155636083593092</v>
       </c>
       <c r="H115">
-        <v>0</v>
+        <v>50.038461819175446</v>
       </c>
       <c r="I115">
-        <v>0</v>
+        <v>51</v>
       </c>
     </row>
     <row r="116">
       <c r="A116">
-        <v>0</v>
+        <v>0.11500000000000009</v>
       </c>
       <c r="B116">
-        <v>0</v>
+        <v>-22</v>
       </c>
       <c r="C116">
-        <v>0</v>
+        <v>0.83901851388437931</v>
       </c>
       <c r="D116">
-        <v>0</v>
+        <v>-18.195764191367655</v>
       </c>
       <c r="E116">
-        <v>0</v>
+        <v>-1065.2811518475714</v>
       </c>
       <c r="F116">
-        <v>0</v>
+        <v>0.01176122603212601</v>
       </c>
       <c r="G116">
-        <v>0</v>
+        <v>0.0318623256645717</v>
       </c>
       <c r="H116">
-        <v>0</v>
+        <v>49.084242215096197</v>
       </c>
       <c r="I116">
-        <v>0</v>
+        <v>50</v>
       </c>
     </row>
     <row r="117">
       <c r="A117">
-        <v>0</v>
+        <v>0.11600000000000009</v>
       </c>
       <c r="B117">
-        <v>0</v>
+        <v>-22</v>
       </c>
       <c r="C117">
-        <v>0</v>
+        <v>0.8202229546050992</v>
       </c>
       <c r="D117">
-        <v>0</v>
+        <v>-19.395354367192397</v>
       </c>
       <c r="E117">
-        <v>0</v>
+        <v>-1199.5901758247423</v>
       </c>
       <c r="F117">
-        <v>0</v>
+        <v>0.011201899425962312</v>
       </c>
       <c r="G117">
-        <v>0</v>
+        <v>0.031461215157015526</v>
       </c>
       <c r="H117">
-        <v>0</v>
+        <v>48.0722197789134</v>
       </c>
       <c r="I117">
-        <v>0</v>
+        <v>49</v>
       </c>
     </row>
     <row r="118">
       <c r="A118">
-        <v>0</v>
+        <v>0.11700000000000009</v>
       </c>
       <c r="B118">
-        <v>0</v>
+        <v>-22</v>
       </c>
       <c r="C118">
-        <v>0</v>
+        <v>0.80014700390379145</v>
       </c>
       <c r="D118">
-        <v>0</v>
+        <v>-20.756547035423033</v>
       </c>
       <c r="E118">
-        <v>0</v>
+        <v>-1361.1926682306362</v>
       </c>
       <c r="F118">
-        <v>0</v>
+        <v>0.01061561574605706</v>
       </c>
       <c r="G118">
-        <v>0</v>
+        <v>0.030938984776195444</v>
       </c>
       <c r="H118">
-        <v>0</v>
+        <v>46.995313558622691</v>
       </c>
       <c r="I118">
-        <v>0</v>
+        <v>47</v>
       </c>
     </row>
     <row r="119">
       <c r="A119">
-        <v>0</v>
+        <v>0.11800000000000009</v>
       </c>
       <c r="B119">
-        <v>0</v>
+        <v>-22</v>
       </c>
       <c r="C119">
-        <v>0</v>
+        <v>0.77861146398973291</v>
       </c>
       <c r="D119">
-        <v>0</v>
+        <v>-22.314532792694088</v>
       </c>
       <c r="E119">
-        <v>0</v>
+        <v>-1557.9857572710548</v>
       </c>
       <c r="F119">
-        <v>0</v>
+        <v>0.01000059366434904</v>
       </c>
       <c r="G119">
-        <v>0</v>
+        <v>0.030271196147017281</v>
       </c>
       <c r="H119">
-        <v>0</v>
+        <v>45.845046313725057</v>
       </c>
       <c r="I119">
-        <v>0</v>
+        <v>46</v>
       </c>
     </row>
     <row r="120">
       <c r="A120">
-        <v>0</v>
+        <v>0.11900000000000009</v>
       </c>
       <c r="B120">
-        <v>0</v>
+        <v>-22</v>
       </c>
       <c r="C120">
-        <v>0</v>
+        <v>0.75539639091536936</v>
       </c>
       <c r="D120">
-        <v>0</v>
+        <v>-24.115613356032981</v>
       </c>
       <c r="E120">
-        <v>0</v>
+        <v>-1801.0805633388911</v>
       </c>
       <c r="F120">
-        <v>0</v>
+        <v>0.0093570277241857916</v>
       </c>
       <c r="G120">
-        <v>0</v>
+        <v>0.029451681690530099</v>
       </c>
       <c r="H120">
-        <v>0</v>
+        <v>44.611150767113969</v>
       </c>
       <c r="I120">
-        <v>0</v>
+        <v>45</v>
       </c>
     </row>
     <row r="121">
       <c r="A121">
-        <v>0</v>
+        <v>0.12000000000000009</v>
       </c>
       <c r="B121">
-        <v>0</v>
+        <v>-22</v>
       </c>
       <c r="C121">
-        <v>0</v>
+        <v>0.73022758365276641</v>
       </c>
       <c r="D121">
-        <v>0</v>
+        <v>-26.222001169172998</v>
       </c>
       <c r="E121">
-        <v>0</v>
+        <v>-2106.3878131400156</v>
       </c>
       <c r="F121">
-        <v>0</v>
+        <v>0.0086845703393918922</v>
       </c>
       <c r="G121">
-        <v>0</v>
+        <v>0.028467394134095304</v>
       </c>
       <c r="H121">
-        <v>0</v>
+        <v>43.281025058865147</v>
       </c>
       <c r="I121">
-        <v>0</v>
+        <v>44</v>
       </c>
     </row>
     <row r="122">
       <c r="A122">
-        <v>0</v>
+        <v>0.12100000000000009</v>
       </c>
       <c r="B122">
-        <v>0</v>
+        <v>-22</v>
       </c>
       <c r="C122">
-        <v>0</v>
+        <v>0.70275704206810474</v>
       </c>
       <c r="D122">
-        <v>0</v>
+        <v>-28.719082000150362</v>
       </c>
       <c r="E122">
-        <v>0</v>
+        <v>-2497.0808309773633</v>
       </c>
       <c r="F122">
-        <v>0</v>
+        <v>0.0079827274148381276</v>
       </c>
       <c r="G122">
-        <v>0</v>
+        <v>0.027295790993129669</v>
       </c>
       <c r="H122">
-        <v>0</v>
+        <v>41.838958627339778</v>
       </c>
       <c r="I122">
-        <v>0</v>
+        <v>42</v>
       </c>
     </row>
     <row r="123">
       <c r="A123">
-        <v>0</v>
+        <v>0.12200000000000009</v>
       </c>
       <c r="B123">
-        <v>0</v>
+        <v>-22</v>
       </c>
       <c r="C123">
-        <v>0</v>
+        <v>0.67253391165199006</v>
       </c>
       <c r="D123">
-        <v>0</v>
+        <v>-31.727178832078906</v>
       </c>
       <c r="E123">
-        <v>0</v>
+        <v>-3008.0968319285435</v>
       </c>
       <c r="F123">
-        <v>0</v>
+        <v>0.0072516253453671908</v>
       </c>
       <c r="G123">
-        <v>0</v>
+        <v>0.025913037577476483</v>
       </c>
       <c r="H123">
-        <v>0</v>
+        <v>40.26501253360005</v>
       </c>
       <c r="I123">
-        <v>0</v>
+        <v>41</v>
       </c>
     </row>
     <row r="124">
       <c r="A124">
-        <v>0</v>
+        <v>0.1230000000000001</v>
       </c>
       <c r="B124">
-        <v>0</v>
+        <v>-22</v>
       </c>
       <c r="C124">
-        <v>0</v>
+        <v>0.63895941605627093</v>
       </c>
       <c r="D124">
-        <v>0</v>
+        <v>-35.421812359359329</v>
       </c>
       <c r="E124">
-        <v>0</v>
+        <v>-3694.6335272804226</v>
       </c>
       <c r="F124">
-        <v>0</v>
+        <v>0.0064926019294223071</v>
       </c>
       <c r="G124">
-        <v>0</v>
+        <v>0.024304134784959637</v>
       </c>
       <c r="H124">
-        <v>0</v>
+        <v>38.533354717083213</v>
       </c>
       <c r="I124">
-        <v>0</v>
+        <v>39</v>
       </c>
     </row>
     <row r="125">
       <c r="A125">
-        <v>0</v>
+        <v>0.1240000000000001</v>
       </c>
       <c r="B125">
-        <v>0</v>
+        <v>-22</v>
       </c>
       <c r="C125">
-        <v>0</v>
+        <v>0.60121390273131048</v>
       </c>
       <c r="D125">
-        <v>0</v>
+        <v>-40.06921429056154</v>
       </c>
       <c r="E125">
-        <v>0</v>
+        <v>-4647.4019312022092</v>
       </c>
       <c r="F125">
-        <v>0</v>
+        <v>0.0057075847268965784</v>
       </c>
       <c r="G125">
-        <v>0</v>
+        <v>0.022449708175084307</v>
       </c>
       <c r="H125">
-        <v>0</v>
+        <v>36.609677820167931</v>
       </c>
       <c r="I125">
-        <v>0</v>
+        <v>37</v>
       </c>
     </row>
     <row r="126">
       <c r="A126">
-        <v>0</v>
+        <v>0.12500000000000008</v>
       </c>
       <c r="B126">
-        <v>0</v>
+        <v>-22</v>
       </c>
       <c r="C126">
-        <v>0</v>
+        <v>0.55813302656029051</v>
       </c>
       <c r="D126">
-        <v>0</v>
+        <v>-46.092538051478499</v>
       </c>
       <c r="E126">
-        <v>0</v>
+        <v>-6023.3237609169591</v>
       </c>
       <c r="F126">
-        <v>0</v>
+        <v>0.0049001956633474928</v>
       </c>
       <c r="G126">
-        <v>0</v>
+        <v>0.020329257205092766</v>
       </c>
       <c r="H126">
-        <v>0</v>
+        <v>34.447019211092886</v>
       </c>
       <c r="I126">
-        <v>0</v>
+        <v>35</v>
       </c>
     </row>
     <row r="127">
       <c r="A127">
-        <v>0</v>
+        <v>0.12600000000000008</v>
       </c>
       <c r="B127">
-        <v>0</v>
+        <v>-22</v>
       </c>
       <c r="C127">
-        <v>0</v>
+        <v>0.50798298666573338</v>
       </c>
       <c r="D127">
-        <v>0</v>
+        <v>-54.20754173763568</v>
       </c>
       <c r="E127">
-        <v>0</v>
+        <v>-8115.0036861571798</v>
       </c>
       <c r="F127">
-        <v>0</v>
+        <v>0.0040759178764584684</v>
       </c>
       <c r="G127">
-        <v>0</v>
+        <v>0.017928264779135405</v>
       </c>
       <c r="H127">
-        <v>0</v>
+        <v>31.978666828767725</v>
       </c>
       <c r="I127">
-        <v>0</v>
+        <v>32</v>
       </c>
     </row>
     <row r="128">
       <c r="A128">
-        <v>0</v>
+        <v>0.12700000000000009</v>
       </c>
       <c r="B128">
-        <v>0</v>
+        <v>-22</v>
       </c>
       <c r="C128">
-        <v>0</v>
+        <v>0.44802119078331337</v>
       </c>
       <c r="D128">
-        <v>0</v>
+        <v>-65.71605002720429</v>
       </c>
       <c r="E128">
-        <v>0</v>
+        <v>-11508.508289568603</v>
       </c>
       <c r="F128">
-        <v>0</v>
+        <v>0.0032451408961517514</v>
       </c>
       <c r="G128">
-        <v>0</v>
+        <v>0.015233066593939294</v>
       </c>
       <c r="H128">
-        <v>0</v>
+        <v>29.105281200396895</v>
       </c>
       <c r="I128">
-        <v>0</v>
+        <v>30</v>
       </c>
     </row>
     <row r="129">
       <c r="A129">
-        <v>0</v>
+        <v>0.12800000000000009</v>
       </c>
       <c r="B129">
-        <v>0</v>
+        <v>-22</v>
       </c>
       <c r="C129">
-        <v>0</v>
+        <v>0.37354114197087984</v>
       </c>
       <c r="D129">
-        <v>0</v>
+        <v>-83.24404759766287</v>
       </c>
       <c r="E129">
-        <v>0</v>
+        <v>-17527.997570458574</v>
       </c>
       <c r="F129">
-        <v>0</v>
+        <v>0.0024229841267034598</v>
       </c>
       <c r="G129">
-        <v>0</v>
+        <v>0.012247107475064176</v>
       </c>
       <c r="H129">
-        <v>0</v>
+        <v>25.669723364309316</v>
       </c>
       <c r="I129">
-        <v>0</v>
+        <v>26</v>
       </c>
     </row>
     <row r="130">
       <c r="A130">
-        <v>0</v>
+        <v>0.12900000000000009</v>
       </c>
       <c r="B130">
-        <v>0</v>
+        <v>-22</v>
       </c>
       <c r="C130">
-        <v>0</v>
+        <v>0.27549805274685568</v>
       </c>
       <c r="D130">
-        <v>0</v>
+        <v>-112.84213085038536</v>
       </c>
       <c r="E130">
-        <v>0</v>
+        <v>-29598.083252722481</v>
       </c>
       <c r="F130">
-        <v>0</v>
+        <v>0.0016353905771583741</v>
       </c>
       <c r="G130">
-        <v>0</v>
+        <v>0.0089921858331891841</v>
       </c>
       <c r="H130">
-        <v>0</v>
+        <v>21.40233090942851</v>
       </c>
       <c r="I130">
-        <v>0</v>
+        <v>22</v>
       </c>
     </row>
     <row r="131">
